--- a/ligueone_match_urls.xlsx
+++ b/ligueone_match_urls.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="109">
   <si>
     <t>x</t>
   </si>
@@ -152,6 +152,33 @@
     <t>45</t>
   </si>
   <si>
+    <t>46</t>
+  </si>
+  <si>
+    <t>47</t>
+  </si>
+  <si>
+    <t>48</t>
+  </si>
+  <si>
+    <t>49</t>
+  </si>
+  <si>
+    <t>50</t>
+  </si>
+  <si>
+    <t>51</t>
+  </si>
+  <si>
+    <t>52</t>
+  </si>
+  <si>
+    <t>53</t>
+  </si>
+  <si>
+    <t>54</t>
+  </si>
+  <si>
     <t>https://fbref.com/en/matches/a6b98e33/Le-Havre-Paris-Saint-Germain-August-16-2024-Ligue-1</t>
   </si>
   <si>
@@ -285,6 +312,33 @@
   </si>
   <si>
     <t>https://fbref.com/en/matches/35b20e2f/Choc-des-Olympiques-Lyon-Marseille-September-22-2024-Ligue-1</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/8c59509d/Auxerre-Brest-September-27-2024-Ligue-1</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/ab0643c6/Paris-Saint-Germain-Rennes-September-27-2024-Ligue-1</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/340afccd/Lens-Nice-September-28-2024-Ligue-1</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/e08ccde6/Le-Havre-Lille-September-28-2024-Ligue-1</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/54ce742c/Monaco-Montpellier-September-28-2024-Ligue-1</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/a7954dea/Toulouse-Lyon-September-29-2024-Ligue-1</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/1ea5cb30/Angers-Reims-September-29-2024-Ligue-1</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/38a94d90/Nantes-Saint-Etienne-September-29-2024-Ligue-1</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/ebcd9980/Strasbourg-Marseille-September-29-2024-Ligue-1</t>
   </si>
 </sst>
 </file>
@@ -346,7 +400,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>46</v>
+        <v>55</v>
       </c>
     </row>
     <row r="3">
@@ -354,7 +408,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>47</v>
+        <v>56</v>
       </c>
     </row>
     <row r="4">
@@ -362,7 +416,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>48</v>
+        <v>57</v>
       </c>
     </row>
     <row r="5">
@@ -370,7 +424,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>49</v>
+        <v>58</v>
       </c>
     </row>
     <row r="6">
@@ -378,7 +432,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>50</v>
+        <v>59</v>
       </c>
     </row>
     <row r="7">
@@ -386,7 +440,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>51</v>
+        <v>60</v>
       </c>
     </row>
     <row r="8">
@@ -394,7 +448,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>52</v>
+        <v>61</v>
       </c>
     </row>
     <row r="9">
@@ -402,7 +456,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>53</v>
+        <v>62</v>
       </c>
     </row>
     <row r="10">
@@ -410,7 +464,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>54</v>
+        <v>63</v>
       </c>
     </row>
     <row r="11">
@@ -418,7 +472,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>55</v>
+        <v>64</v>
       </c>
     </row>
     <row r="12">
@@ -426,7 +480,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>56</v>
+        <v>65</v>
       </c>
     </row>
     <row r="13">
@@ -434,7 +488,7 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>57</v>
+        <v>66</v>
       </c>
     </row>
     <row r="14">
@@ -442,7 +496,7 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>58</v>
+        <v>67</v>
       </c>
     </row>
     <row r="15">
@@ -450,7 +504,7 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>59</v>
+        <v>68</v>
       </c>
     </row>
     <row r="16">
@@ -458,7 +512,7 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>60</v>
+        <v>69</v>
       </c>
     </row>
     <row r="17">
@@ -466,7 +520,7 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>61</v>
+        <v>70</v>
       </c>
     </row>
     <row r="18">
@@ -474,7 +528,7 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>62</v>
+        <v>71</v>
       </c>
     </row>
     <row r="19">
@@ -482,7 +536,7 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>63</v>
+        <v>72</v>
       </c>
     </row>
     <row r="20">
@@ -490,7 +544,7 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>64</v>
+        <v>73</v>
       </c>
     </row>
     <row r="21">
@@ -498,7 +552,7 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>65</v>
+        <v>74</v>
       </c>
     </row>
     <row r="22">
@@ -506,7 +560,7 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>66</v>
+        <v>75</v>
       </c>
     </row>
     <row r="23">
@@ -514,7 +568,7 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>67</v>
+        <v>76</v>
       </c>
     </row>
     <row r="24">
@@ -522,7 +576,7 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>68</v>
+        <v>77</v>
       </c>
     </row>
     <row r="25">
@@ -530,7 +584,7 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>69</v>
+        <v>78</v>
       </c>
     </row>
     <row r="26">
@@ -538,7 +592,7 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>70</v>
+        <v>79</v>
       </c>
     </row>
     <row r="27">
@@ -546,7 +600,7 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>71</v>
+        <v>80</v>
       </c>
     </row>
     <row r="28">
@@ -554,7 +608,7 @@
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>72</v>
+        <v>81</v>
       </c>
     </row>
     <row r="29">
@@ -562,7 +616,7 @@
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>73</v>
+        <v>82</v>
       </c>
     </row>
     <row r="30">
@@ -570,7 +624,7 @@
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>74</v>
+        <v>83</v>
       </c>
     </row>
     <row r="31">
@@ -578,7 +632,7 @@
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>75</v>
+        <v>84</v>
       </c>
     </row>
     <row r="32">
@@ -586,7 +640,7 @@
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>76</v>
+        <v>85</v>
       </c>
     </row>
     <row r="33">
@@ -594,7 +648,7 @@
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>77</v>
+        <v>86</v>
       </c>
     </row>
     <row r="34">
@@ -602,7 +656,7 @@
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>78</v>
+        <v>87</v>
       </c>
     </row>
     <row r="35">
@@ -610,7 +664,7 @@
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>79</v>
+        <v>88</v>
       </c>
     </row>
     <row r="36">
@@ -618,7 +672,7 @@
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>80</v>
+        <v>89</v>
       </c>
     </row>
     <row r="37">
@@ -626,7 +680,7 @@
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>81</v>
+        <v>90</v>
       </c>
     </row>
     <row r="38">
@@ -634,7 +688,7 @@
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>82</v>
+        <v>91</v>
       </c>
     </row>
     <row r="39">
@@ -642,7 +696,7 @@
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>83</v>
+        <v>92</v>
       </c>
     </row>
     <row r="40">
@@ -650,7 +704,7 @@
         <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>84</v>
+        <v>93</v>
       </c>
     </row>
     <row r="41">
@@ -658,7 +712,7 @@
         <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>85</v>
+        <v>94</v>
       </c>
     </row>
     <row r="42">
@@ -666,7 +720,7 @@
         <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>86</v>
+        <v>95</v>
       </c>
     </row>
     <row r="43">
@@ -674,7 +728,7 @@
         <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>87</v>
+        <v>96</v>
       </c>
     </row>
     <row r="44">
@@ -682,7 +736,7 @@
         <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>88</v>
+        <v>97</v>
       </c>
     </row>
     <row r="45">
@@ -690,7 +744,7 @@
         <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>89</v>
+        <v>98</v>
       </c>
     </row>
     <row r="46">
@@ -698,7 +752,79 @@
         <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>90</v>
+        <v>99</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="s">
+        <v>46</v>
+      </c>
+      <c r="B47" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="s">
+        <v>47</v>
+      </c>
+      <c r="B48" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="s">
+        <v>48</v>
+      </c>
+      <c r="B49" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="s">
+        <v>49</v>
+      </c>
+      <c r="B50" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="s">
+        <v>50</v>
+      </c>
+      <c r="B51" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="s">
+        <v>51</v>
+      </c>
+      <c r="B52" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="s">
+        <v>52</v>
+      </c>
+      <c r="B53" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="s">
+        <v>53</v>
+      </c>
+      <c r="B54" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="s">
+        <v>54</v>
+      </c>
+      <c r="B55" t="s">
+        <v>108</v>
       </c>
     </row>
   </sheetData>

--- a/ligueone_match_urls.xlsx
+++ b/ligueone_match_urls.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="145">
   <si>
     <t>x</t>
   </si>
@@ -179,6 +179,60 @@
     <t>54</t>
   </si>
   <si>
+    <t>55</t>
+  </si>
+  <si>
+    <t>56</t>
+  </si>
+  <si>
+    <t>57</t>
+  </si>
+  <si>
+    <t>58</t>
+  </si>
+  <si>
+    <t>59</t>
+  </si>
+  <si>
+    <t>60</t>
+  </si>
+  <si>
+    <t>61</t>
+  </si>
+  <si>
+    <t>62</t>
+  </si>
+  <si>
+    <t>63</t>
+  </si>
+  <si>
+    <t>64</t>
+  </si>
+  <si>
+    <t>65</t>
+  </si>
+  <si>
+    <t>66</t>
+  </si>
+  <si>
+    <t>67</t>
+  </si>
+  <si>
+    <t>68</t>
+  </si>
+  <si>
+    <t>69</t>
+  </si>
+  <si>
+    <t>70</t>
+  </si>
+  <si>
+    <t>71</t>
+  </si>
+  <si>
+    <t>72</t>
+  </si>
+  <si>
     <t>https://fbref.com/en/matches/a6b98e33/Le-Havre-Paris-Saint-Germain-August-16-2024-Ligue-1</t>
   </si>
   <si>
@@ -339,6 +393,60 @@
   </si>
   <si>
     <t>https://fbref.com/en/matches/ebcd9980/Strasbourg-Marseille-September-29-2024-Ligue-1</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/c2dcc859/Marseille-Angers-October-4-2024-Ligue-1</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/752978b2/Saint-Etienne-Auxerre-October-5-2024-Ligue-1</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/8d700c3d/Lille-Toulouse-October-5-2024-Ligue-1</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/f7072ea6/Rennes-Monaco-October-5-2024-Ligue-1</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/1cefcdb4/Lyon-Nantes-October-6-2024-Ligue-1</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/219332d8/Strasbourg-Lens-October-6-2024-Ligue-1</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/843fb71f/Reims-Montpellier-October-6-2024-Ligue-1</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/efe178e7/Brest-Le-Havre-October-6-2024-Ligue-1</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/474dd950/Nice-Paris-Saint-Germain-October-6-2024-Ligue-1</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/18476c11/Monaco-Lille-October-18-2024-Ligue-1</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/e2a10c83/Brest-Rennes-October-19-2024-Ligue-1</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/0782c73c/Saint-Etienne-Lens-October-19-2024-Ligue-1</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/80a16e3b/Paris-Saint-Germain-Strasbourg-October-19-2024-Ligue-1</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/b12f8ecd/Le-Havre-Lyon-October-20-2024-Ligue-1</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/5f02a541/Auxerre-Reims-October-20-2024-Ligue-1</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/706313e8/Nantes-Nice-October-20-2024-Ligue-1</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/92f559ad/Toulouse-Angers-October-20-2024-Ligue-1</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/0f332030/Montpellier-Marseille-October-20-2024-Ligue-1</t>
   </si>
 </sst>
 </file>
@@ -400,7 +508,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>55</v>
+        <v>73</v>
       </c>
     </row>
     <row r="3">
@@ -408,7 +516,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>56</v>
+        <v>74</v>
       </c>
     </row>
     <row r="4">
@@ -416,7 +524,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>57</v>
+        <v>75</v>
       </c>
     </row>
     <row r="5">
@@ -424,7 +532,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>58</v>
+        <v>76</v>
       </c>
     </row>
     <row r="6">
@@ -432,7 +540,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>59</v>
+        <v>77</v>
       </c>
     </row>
     <row r="7">
@@ -440,7 +548,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>60</v>
+        <v>78</v>
       </c>
     </row>
     <row r="8">
@@ -448,7 +556,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>61</v>
+        <v>79</v>
       </c>
     </row>
     <row r="9">
@@ -456,7 +564,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>62</v>
+        <v>80</v>
       </c>
     </row>
     <row r="10">
@@ -464,7 +572,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>63</v>
+        <v>81</v>
       </c>
     </row>
     <row r="11">
@@ -472,7 +580,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>64</v>
+        <v>82</v>
       </c>
     </row>
     <row r="12">
@@ -480,7 +588,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>65</v>
+        <v>83</v>
       </c>
     </row>
     <row r="13">
@@ -488,7 +596,7 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>66</v>
+        <v>84</v>
       </c>
     </row>
     <row r="14">
@@ -496,7 +604,7 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>67</v>
+        <v>85</v>
       </c>
     </row>
     <row r="15">
@@ -504,7 +612,7 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>68</v>
+        <v>86</v>
       </c>
     </row>
     <row r="16">
@@ -512,7 +620,7 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>69</v>
+        <v>87</v>
       </c>
     </row>
     <row r="17">
@@ -520,7 +628,7 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>70</v>
+        <v>88</v>
       </c>
     </row>
     <row r="18">
@@ -528,7 +636,7 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>71</v>
+        <v>89</v>
       </c>
     </row>
     <row r="19">
@@ -536,7 +644,7 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>72</v>
+        <v>90</v>
       </c>
     </row>
     <row r="20">
@@ -544,7 +652,7 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>73</v>
+        <v>91</v>
       </c>
     </row>
     <row r="21">
@@ -552,7 +660,7 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>74</v>
+        <v>92</v>
       </c>
     </row>
     <row r="22">
@@ -560,7 +668,7 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>75</v>
+        <v>93</v>
       </c>
     </row>
     <row r="23">
@@ -568,7 +676,7 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>76</v>
+        <v>94</v>
       </c>
     </row>
     <row r="24">
@@ -576,7 +684,7 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>77</v>
+        <v>95</v>
       </c>
     </row>
     <row r="25">
@@ -584,7 +692,7 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>78</v>
+        <v>96</v>
       </c>
     </row>
     <row r="26">
@@ -592,7 +700,7 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>79</v>
+        <v>97</v>
       </c>
     </row>
     <row r="27">
@@ -600,7 +708,7 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>80</v>
+        <v>98</v>
       </c>
     </row>
     <row r="28">
@@ -608,7 +716,7 @@
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>81</v>
+        <v>99</v>
       </c>
     </row>
     <row r="29">
@@ -616,7 +724,7 @@
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>82</v>
+        <v>100</v>
       </c>
     </row>
     <row r="30">
@@ -624,7 +732,7 @@
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>83</v>
+        <v>101</v>
       </c>
     </row>
     <row r="31">
@@ -632,7 +740,7 @@
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>84</v>
+        <v>102</v>
       </c>
     </row>
     <row r="32">
@@ -640,7 +748,7 @@
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>85</v>
+        <v>103</v>
       </c>
     </row>
     <row r="33">
@@ -648,7 +756,7 @@
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>86</v>
+        <v>104</v>
       </c>
     </row>
     <row r="34">
@@ -656,7 +764,7 @@
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>87</v>
+        <v>105</v>
       </c>
     </row>
     <row r="35">
@@ -664,7 +772,7 @@
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>88</v>
+        <v>106</v>
       </c>
     </row>
     <row r="36">
@@ -672,7 +780,7 @@
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>89</v>
+        <v>107</v>
       </c>
     </row>
     <row r="37">
@@ -680,7 +788,7 @@
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>90</v>
+        <v>108</v>
       </c>
     </row>
     <row r="38">
@@ -688,7 +796,7 @@
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>91</v>
+        <v>109</v>
       </c>
     </row>
     <row r="39">
@@ -696,7 +804,7 @@
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>92</v>
+        <v>110</v>
       </c>
     </row>
     <row r="40">
@@ -704,7 +812,7 @@
         <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>93</v>
+        <v>111</v>
       </c>
     </row>
     <row r="41">
@@ -712,7 +820,7 @@
         <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>94</v>
+        <v>112</v>
       </c>
     </row>
     <row r="42">
@@ -720,7 +828,7 @@
         <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>95</v>
+        <v>113</v>
       </c>
     </row>
     <row r="43">
@@ -728,7 +836,7 @@
         <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>96</v>
+        <v>114</v>
       </c>
     </row>
     <row r="44">
@@ -736,7 +844,7 @@
         <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>97</v>
+        <v>115</v>
       </c>
     </row>
     <row r="45">
@@ -744,7 +852,7 @@
         <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>98</v>
+        <v>116</v>
       </c>
     </row>
     <row r="46">
@@ -752,7 +860,7 @@
         <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>99</v>
+        <v>117</v>
       </c>
     </row>
     <row r="47">
@@ -760,7 +868,7 @@
         <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>100</v>
+        <v>118</v>
       </c>
     </row>
     <row r="48">
@@ -768,7 +876,7 @@
         <v>47</v>
       </c>
       <c r="B48" t="s">
-        <v>101</v>
+        <v>119</v>
       </c>
     </row>
     <row r="49">
@@ -776,7 +884,7 @@
         <v>48</v>
       </c>
       <c r="B49" t="s">
-        <v>102</v>
+        <v>120</v>
       </c>
     </row>
     <row r="50">
@@ -784,7 +892,7 @@
         <v>49</v>
       </c>
       <c r="B50" t="s">
-        <v>103</v>
+        <v>121</v>
       </c>
     </row>
     <row r="51">
@@ -792,7 +900,7 @@
         <v>50</v>
       </c>
       <c r="B51" t="s">
-        <v>104</v>
+        <v>122</v>
       </c>
     </row>
     <row r="52">
@@ -800,7 +908,7 @@
         <v>51</v>
       </c>
       <c r="B52" t="s">
-        <v>105</v>
+        <v>123</v>
       </c>
     </row>
     <row r="53">
@@ -808,7 +916,7 @@
         <v>52</v>
       </c>
       <c r="B53" t="s">
-        <v>106</v>
+        <v>124</v>
       </c>
     </row>
     <row r="54">
@@ -816,7 +924,7 @@
         <v>53</v>
       </c>
       <c r="B54" t="s">
-        <v>107</v>
+        <v>125</v>
       </c>
     </row>
     <row r="55">
@@ -824,7 +932,151 @@
         <v>54</v>
       </c>
       <c r="B55" t="s">
-        <v>108</v>
+        <v>126</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="s">
+        <v>55</v>
+      </c>
+      <c r="B56" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="s">
+        <v>56</v>
+      </c>
+      <c r="B57" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="s">
+        <v>57</v>
+      </c>
+      <c r="B58" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="s">
+        <v>58</v>
+      </c>
+      <c r="B59" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="s">
+        <v>59</v>
+      </c>
+      <c r="B60" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="s">
+        <v>60</v>
+      </c>
+      <c r="B61" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="s">
+        <v>61</v>
+      </c>
+      <c r="B62" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="s">
+        <v>62</v>
+      </c>
+      <c r="B63" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="s">
+        <v>63</v>
+      </c>
+      <c r="B64" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="s">
+        <v>64</v>
+      </c>
+      <c r="B65" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="s">
+        <v>65</v>
+      </c>
+      <c r="B66" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="s">
+        <v>66</v>
+      </c>
+      <c r="B67" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="s">
+        <v>67</v>
+      </c>
+      <c r="B68" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="s">
+        <v>68</v>
+      </c>
+      <c r="B69" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="s">
+        <v>69</v>
+      </c>
+      <c r="B70" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="s">
+        <v>70</v>
+      </c>
+      <c r="B71" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="s">
+        <v>71</v>
+      </c>
+      <c r="B72" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="s">
+        <v>72</v>
+      </c>
+      <c r="B73" t="s">
+        <v>144</v>
       </c>
     </row>
   </sheetData>

--- a/ligueone_match_urls.xlsx
+++ b/ligueone_match_urls.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="183">
   <si>
     <t>x</t>
   </si>
@@ -233,6 +233,63 @@
     <t>72</t>
   </si>
   <si>
+    <t>73</t>
+  </si>
+  <si>
+    <t>74</t>
+  </si>
+  <si>
+    <t>75</t>
+  </si>
+  <si>
+    <t>76</t>
+  </si>
+  <si>
+    <t>77</t>
+  </si>
+  <si>
+    <t>78</t>
+  </si>
+  <si>
+    <t>79</t>
+  </si>
+  <si>
+    <t>80</t>
+  </si>
+  <si>
+    <t>81</t>
+  </si>
+  <si>
+    <t>82</t>
+  </si>
+  <si>
+    <t>83</t>
+  </si>
+  <si>
+    <t>84</t>
+  </si>
+  <si>
+    <t>85</t>
+  </si>
+  <si>
+    <t>86</t>
+  </si>
+  <si>
+    <t>87</t>
+  </si>
+  <si>
+    <t>88</t>
+  </si>
+  <si>
+    <t>89</t>
+  </si>
+  <si>
+    <t>90</t>
+  </si>
+  <si>
+    <t>91</t>
+  </si>
+  <si>
     <t>https://fbref.com/en/matches/a6b98e33/Le-Havre-Paris-Saint-Germain-August-16-2024-Ligue-1</t>
   </si>
   <si>
@@ -447,6 +504,63 @@
   </si>
   <si>
     <t>https://fbref.com/en/matches/0f332030/Montpellier-Marseille-October-20-2024-Ligue-1</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/603efa49/Rennes-Le-Havre-October-25-2024-Ligue-1</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/61752f42/Angers-Saint-Etienne-October-26-2024-Ligue-1</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/6e7b242b/Reims-Brest-October-26-2024-Ligue-1</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/ac39189f/Lens-Lille-October-26-2024-Ligue-1</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/bd02e3b4/Lyon-Auxerre-October-27-2024-Ligue-1</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/49e6789d/Montpellier-Toulouse-October-27-2024-Ligue-1</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/4cbaa8c3/Nice-Monaco-October-27-2024-Ligue-1</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/98168e71/Strasbourg-Nantes-October-27-2024-Ligue-1</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/c29b0d3a/Marseille-Paris-Saint-Germain-October-27-2024-Ligue-1</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/3e5f7440/Monaco-Angers-November-1-2024-Ligue-1</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/d592199c/Lille-Lyon-November-1-2024-Ligue-1</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/51cd344b/Paris-Saint-Germain-Lens-November-2-2024-Ligue-1</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/0fab1c2f/Brest-Nice-November-2-2024-Ligue-1</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/535bbc15/Saint-Etienne-Strasbourg-November-2-2024-Ligue-1</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/f0237d4b/Toulouse-Reims-November-3-2024-Ligue-1</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/a537aa6e/Le-Havre-Montpellier-November-3-2024-Ligue-1</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/acc30562/Auxerre-Rennes-November-3-2024-Ligue-1</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/53893177/Nantes-Marseille-November-3-2024-Ligue-1</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/4ab63460/Marseille-Auxerre-November-8-2024-Ligue-1</t>
   </si>
 </sst>
 </file>
@@ -508,7 +622,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>73</v>
+        <v>92</v>
       </c>
     </row>
     <row r="3">
@@ -516,7 +630,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>74</v>
+        <v>93</v>
       </c>
     </row>
     <row r="4">
@@ -524,7 +638,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>75</v>
+        <v>94</v>
       </c>
     </row>
     <row r="5">
@@ -532,7 +646,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>76</v>
+        <v>95</v>
       </c>
     </row>
     <row r="6">
@@ -540,7 +654,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>77</v>
+        <v>96</v>
       </c>
     </row>
     <row r="7">
@@ -548,7 +662,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>78</v>
+        <v>97</v>
       </c>
     </row>
     <row r="8">
@@ -556,7 +670,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>79</v>
+        <v>98</v>
       </c>
     </row>
     <row r="9">
@@ -564,7 +678,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>80</v>
+        <v>99</v>
       </c>
     </row>
     <row r="10">
@@ -572,7 +686,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>81</v>
+        <v>100</v>
       </c>
     </row>
     <row r="11">
@@ -580,7 +694,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>82</v>
+        <v>101</v>
       </c>
     </row>
     <row r="12">
@@ -588,7 +702,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>83</v>
+        <v>102</v>
       </c>
     </row>
     <row r="13">
@@ -596,7 +710,7 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>84</v>
+        <v>103</v>
       </c>
     </row>
     <row r="14">
@@ -604,7 +718,7 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>85</v>
+        <v>104</v>
       </c>
     </row>
     <row r="15">
@@ -612,7 +726,7 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>86</v>
+        <v>105</v>
       </c>
     </row>
     <row r="16">
@@ -620,7 +734,7 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>87</v>
+        <v>106</v>
       </c>
     </row>
     <row r="17">
@@ -628,7 +742,7 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>88</v>
+        <v>107</v>
       </c>
     </row>
     <row r="18">
@@ -636,7 +750,7 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>89</v>
+        <v>108</v>
       </c>
     </row>
     <row r="19">
@@ -644,7 +758,7 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>90</v>
+        <v>109</v>
       </c>
     </row>
     <row r="20">
@@ -652,7 +766,7 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>91</v>
+        <v>110</v>
       </c>
     </row>
     <row r="21">
@@ -660,7 +774,7 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>92</v>
+        <v>111</v>
       </c>
     </row>
     <row r="22">
@@ -668,7 +782,7 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>93</v>
+        <v>112</v>
       </c>
     </row>
     <row r="23">
@@ -676,7 +790,7 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>94</v>
+        <v>113</v>
       </c>
     </row>
     <row r="24">
@@ -684,7 +798,7 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>95</v>
+        <v>114</v>
       </c>
     </row>
     <row r="25">
@@ -692,7 +806,7 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>96</v>
+        <v>115</v>
       </c>
     </row>
     <row r="26">
@@ -700,7 +814,7 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>97</v>
+        <v>116</v>
       </c>
     </row>
     <row r="27">
@@ -708,7 +822,7 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>98</v>
+        <v>117</v>
       </c>
     </row>
     <row r="28">
@@ -716,7 +830,7 @@
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>99</v>
+        <v>118</v>
       </c>
     </row>
     <row r="29">
@@ -724,7 +838,7 @@
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>100</v>
+        <v>119</v>
       </c>
     </row>
     <row r="30">
@@ -732,7 +846,7 @@
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>101</v>
+        <v>120</v>
       </c>
     </row>
     <row r="31">
@@ -740,7 +854,7 @@
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>102</v>
+        <v>121</v>
       </c>
     </row>
     <row r="32">
@@ -748,7 +862,7 @@
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>103</v>
+        <v>122</v>
       </c>
     </row>
     <row r="33">
@@ -756,7 +870,7 @@
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>104</v>
+        <v>123</v>
       </c>
     </row>
     <row r="34">
@@ -764,7 +878,7 @@
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>105</v>
+        <v>124</v>
       </c>
     </row>
     <row r="35">
@@ -772,7 +886,7 @@
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>106</v>
+        <v>125</v>
       </c>
     </row>
     <row r="36">
@@ -780,7 +894,7 @@
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>107</v>
+        <v>126</v>
       </c>
     </row>
     <row r="37">
@@ -788,7 +902,7 @@
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>108</v>
+        <v>127</v>
       </c>
     </row>
     <row r="38">
@@ -796,7 +910,7 @@
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>109</v>
+        <v>128</v>
       </c>
     </row>
     <row r="39">
@@ -804,7 +918,7 @@
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>110</v>
+        <v>129</v>
       </c>
     </row>
     <row r="40">
@@ -812,7 +926,7 @@
         <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>111</v>
+        <v>130</v>
       </c>
     </row>
     <row r="41">
@@ -820,7 +934,7 @@
         <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>112</v>
+        <v>131</v>
       </c>
     </row>
     <row r="42">
@@ -828,7 +942,7 @@
         <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>113</v>
+        <v>132</v>
       </c>
     </row>
     <row r="43">
@@ -836,7 +950,7 @@
         <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>114</v>
+        <v>133</v>
       </c>
     </row>
     <row r="44">
@@ -844,7 +958,7 @@
         <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>115</v>
+        <v>134</v>
       </c>
     </row>
     <row r="45">
@@ -852,7 +966,7 @@
         <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>116</v>
+        <v>135</v>
       </c>
     </row>
     <row r="46">
@@ -860,7 +974,7 @@
         <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>117</v>
+        <v>136</v>
       </c>
     </row>
     <row r="47">
@@ -868,7 +982,7 @@
         <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>118</v>
+        <v>137</v>
       </c>
     </row>
     <row r="48">
@@ -876,7 +990,7 @@
         <v>47</v>
       </c>
       <c r="B48" t="s">
-        <v>119</v>
+        <v>138</v>
       </c>
     </row>
     <row r="49">
@@ -884,7 +998,7 @@
         <v>48</v>
       </c>
       <c r="B49" t="s">
-        <v>120</v>
+        <v>139</v>
       </c>
     </row>
     <row r="50">
@@ -892,7 +1006,7 @@
         <v>49</v>
       </c>
       <c r="B50" t="s">
-        <v>121</v>
+        <v>140</v>
       </c>
     </row>
     <row r="51">
@@ -900,7 +1014,7 @@
         <v>50</v>
       </c>
       <c r="B51" t="s">
-        <v>122</v>
+        <v>141</v>
       </c>
     </row>
     <row r="52">
@@ -908,7 +1022,7 @@
         <v>51</v>
       </c>
       <c r="B52" t="s">
-        <v>123</v>
+        <v>142</v>
       </c>
     </row>
     <row r="53">
@@ -916,7 +1030,7 @@
         <v>52</v>
       </c>
       <c r="B53" t="s">
-        <v>124</v>
+        <v>143</v>
       </c>
     </row>
     <row r="54">
@@ -924,7 +1038,7 @@
         <v>53</v>
       </c>
       <c r="B54" t="s">
-        <v>125</v>
+        <v>144</v>
       </c>
     </row>
     <row r="55">
@@ -932,7 +1046,7 @@
         <v>54</v>
       </c>
       <c r="B55" t="s">
-        <v>126</v>
+        <v>145</v>
       </c>
     </row>
     <row r="56">
@@ -940,7 +1054,7 @@
         <v>55</v>
       </c>
       <c r="B56" t="s">
-        <v>127</v>
+        <v>146</v>
       </c>
     </row>
     <row r="57">
@@ -948,7 +1062,7 @@
         <v>56</v>
       </c>
       <c r="B57" t="s">
-        <v>128</v>
+        <v>147</v>
       </c>
     </row>
     <row r="58">
@@ -956,7 +1070,7 @@
         <v>57</v>
       </c>
       <c r="B58" t="s">
-        <v>129</v>
+        <v>148</v>
       </c>
     </row>
     <row r="59">
@@ -964,7 +1078,7 @@
         <v>58</v>
       </c>
       <c r="B59" t="s">
-        <v>130</v>
+        <v>149</v>
       </c>
     </row>
     <row r="60">
@@ -972,7 +1086,7 @@
         <v>59</v>
       </c>
       <c r="B60" t="s">
-        <v>131</v>
+        <v>150</v>
       </c>
     </row>
     <row r="61">
@@ -980,7 +1094,7 @@
         <v>60</v>
       </c>
       <c r="B61" t="s">
-        <v>132</v>
+        <v>151</v>
       </c>
     </row>
     <row r="62">
@@ -988,7 +1102,7 @@
         <v>61</v>
       </c>
       <c r="B62" t="s">
-        <v>133</v>
+        <v>152</v>
       </c>
     </row>
     <row r="63">
@@ -996,7 +1110,7 @@
         <v>62</v>
       </c>
       <c r="B63" t="s">
-        <v>134</v>
+        <v>153</v>
       </c>
     </row>
     <row r="64">
@@ -1004,7 +1118,7 @@
         <v>63</v>
       </c>
       <c r="B64" t="s">
-        <v>135</v>
+        <v>154</v>
       </c>
     </row>
     <row r="65">
@@ -1012,7 +1126,7 @@
         <v>64</v>
       </c>
       <c r="B65" t="s">
-        <v>136</v>
+        <v>155</v>
       </c>
     </row>
     <row r="66">
@@ -1020,7 +1134,7 @@
         <v>65</v>
       </c>
       <c r="B66" t="s">
-        <v>137</v>
+        <v>156</v>
       </c>
     </row>
     <row r="67">
@@ -1028,7 +1142,7 @@
         <v>66</v>
       </c>
       <c r="B67" t="s">
-        <v>138</v>
+        <v>157</v>
       </c>
     </row>
     <row r="68">
@@ -1036,7 +1150,7 @@
         <v>67</v>
       </c>
       <c r="B68" t="s">
-        <v>139</v>
+        <v>158</v>
       </c>
     </row>
     <row r="69">
@@ -1044,7 +1158,7 @@
         <v>68</v>
       </c>
       <c r="B69" t="s">
-        <v>140</v>
+        <v>159</v>
       </c>
     </row>
     <row r="70">
@@ -1052,7 +1166,7 @@
         <v>69</v>
       </c>
       <c r="B70" t="s">
-        <v>141</v>
+        <v>160</v>
       </c>
     </row>
     <row r="71">
@@ -1060,7 +1174,7 @@
         <v>70</v>
       </c>
       <c r="B71" t="s">
-        <v>142</v>
+        <v>161</v>
       </c>
     </row>
     <row r="72">
@@ -1068,7 +1182,7 @@
         <v>71</v>
       </c>
       <c r="B72" t="s">
-        <v>143</v>
+        <v>162</v>
       </c>
     </row>
     <row r="73">
@@ -1076,7 +1190,159 @@
         <v>72</v>
       </c>
       <c r="B73" t="s">
-        <v>144</v>
+        <v>163</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="s">
+        <v>73</v>
+      </c>
+      <c r="B74" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="s">
+        <v>74</v>
+      </c>
+      <c r="B75" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="s">
+        <v>75</v>
+      </c>
+      <c r="B76" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="s">
+        <v>76</v>
+      </c>
+      <c r="B77" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="s">
+        <v>77</v>
+      </c>
+      <c r="B78" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="s">
+        <v>78</v>
+      </c>
+      <c r="B79" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="s">
+        <v>79</v>
+      </c>
+      <c r="B80" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="s">
+        <v>80</v>
+      </c>
+      <c r="B81" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="s">
+        <v>81</v>
+      </c>
+      <c r="B82" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="s">
+        <v>82</v>
+      </c>
+      <c r="B83" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="s">
+        <v>83</v>
+      </c>
+      <c r="B84" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="s">
+        <v>84</v>
+      </c>
+      <c r="B85" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="s">
+        <v>85</v>
+      </c>
+      <c r="B86" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="s">
+        <v>86</v>
+      </c>
+      <c r="B87" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="s">
+        <v>87</v>
+      </c>
+      <c r="B88" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="s">
+        <v>88</v>
+      </c>
+      <c r="B89" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="s">
+        <v>89</v>
+      </c>
+      <c r="B90" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="s">
+        <v>90</v>
+      </c>
+      <c r="B91" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="s">
+        <v>91</v>
+      </c>
+      <c r="B92" t="s">
+        <v>182</v>
       </c>
     </row>
   </sheetData>

--- a/ligueone_match_urls.xlsx
+++ b/ligueone_match_urls.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="183">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="199">
   <si>
     <t>x</t>
   </si>
@@ -290,6 +290,30 @@
     <t>91</t>
   </si>
   <si>
+    <t>92</t>
+  </si>
+  <si>
+    <t>93</t>
+  </si>
+  <si>
+    <t>94</t>
+  </si>
+  <si>
+    <t>95</t>
+  </si>
+  <si>
+    <t>96</t>
+  </si>
+  <si>
+    <t>97</t>
+  </si>
+  <si>
+    <t>98</t>
+  </si>
+  <si>
+    <t>99</t>
+  </si>
+  <si>
     <t>https://fbref.com/en/matches/a6b98e33/Le-Havre-Paris-Saint-Germain-August-16-2024-Ligue-1</t>
   </si>
   <si>
@@ -561,6 +585,30 @@
   </si>
   <si>
     <t>https://fbref.com/en/matches/4ab63460/Marseille-Auxerre-November-8-2024-Ligue-1</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/cd41b272/Strasbourg-Monaco-November-9-2024-Ligue-1</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/172c33b7/Lens-Nantes-November-9-2024-Ligue-1</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/ddf738c4/Angers-Paris-Saint-Germain-November-9-2024-Ligue-1</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/e213d881/Nice-Lille-November-10-2024-Ligue-1</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/63390fe7/Le-Havre-Reims-November-10-2024-Ligue-1</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/8ab9a941/Montpellier-Brest-November-10-2024-Ligue-1</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/a7965d75/Rennes-Toulouse-November-10-2024-Ligue-1</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/e552596a/Lyon-Saint-Etienne-November-10-2024-Ligue-1</t>
   </si>
 </sst>
 </file>
@@ -622,7 +670,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>92</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -630,7 +678,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
     </row>
     <row r="4">
@@ -638,7 +686,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>94</v>
+        <v>102</v>
       </c>
     </row>
     <row r="5">
@@ -646,7 +694,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
     </row>
     <row r="6">
@@ -654,7 +702,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
     </row>
     <row r="7">
@@ -662,7 +710,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
     </row>
     <row r="8">
@@ -670,7 +718,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
     </row>
     <row r="9">
@@ -678,7 +726,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>99</v>
+        <v>107</v>
       </c>
     </row>
     <row r="10">
@@ -686,7 +734,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>100</v>
+        <v>108</v>
       </c>
     </row>
     <row r="11">
@@ -694,7 +742,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>101</v>
+        <v>109</v>
       </c>
     </row>
     <row r="12">
@@ -702,7 +750,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>102</v>
+        <v>110</v>
       </c>
     </row>
     <row r="13">
@@ -710,7 +758,7 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>103</v>
+        <v>111</v>
       </c>
     </row>
     <row r="14">
@@ -718,7 +766,7 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>104</v>
+        <v>112</v>
       </c>
     </row>
     <row r="15">
@@ -726,7 +774,7 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
     </row>
     <row r="16">
@@ -734,7 +782,7 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>106</v>
+        <v>114</v>
       </c>
     </row>
     <row r="17">
@@ -742,7 +790,7 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>107</v>
+        <v>115</v>
       </c>
     </row>
     <row r="18">
@@ -750,7 +798,7 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>108</v>
+        <v>116</v>
       </c>
     </row>
     <row r="19">
@@ -758,7 +806,7 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>109</v>
+        <v>117</v>
       </c>
     </row>
     <row r="20">
@@ -766,7 +814,7 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>110</v>
+        <v>118</v>
       </c>
     </row>
     <row r="21">
@@ -774,7 +822,7 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>111</v>
+        <v>119</v>
       </c>
     </row>
     <row r="22">
@@ -782,7 +830,7 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>112</v>
+        <v>120</v>
       </c>
     </row>
     <row r="23">
@@ -790,7 +838,7 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>113</v>
+        <v>121</v>
       </c>
     </row>
     <row r="24">
@@ -798,7 +846,7 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
     </row>
     <row r="25">
@@ -806,7 +854,7 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>115</v>
+        <v>123</v>
       </c>
     </row>
     <row r="26">
@@ -814,7 +862,7 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>116</v>
+        <v>124</v>
       </c>
     </row>
     <row r="27">
@@ -822,7 +870,7 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>117</v>
+        <v>125</v>
       </c>
     </row>
     <row r="28">
@@ -830,7 +878,7 @@
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>118</v>
+        <v>126</v>
       </c>
     </row>
     <row r="29">
@@ -838,7 +886,7 @@
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>119</v>
+        <v>127</v>
       </c>
     </row>
     <row r="30">
@@ -846,7 +894,7 @@
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>120</v>
+        <v>128</v>
       </c>
     </row>
     <row r="31">
@@ -854,7 +902,7 @@
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>121</v>
+        <v>129</v>
       </c>
     </row>
     <row r="32">
@@ -862,7 +910,7 @@
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>122</v>
+        <v>130</v>
       </c>
     </row>
     <row r="33">
@@ -870,7 +918,7 @@
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>123</v>
+        <v>131</v>
       </c>
     </row>
     <row r="34">
@@ -878,7 +926,7 @@
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>124</v>
+        <v>132</v>
       </c>
     </row>
     <row r="35">
@@ -886,7 +934,7 @@
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>125</v>
+        <v>133</v>
       </c>
     </row>
     <row r="36">
@@ -894,7 +942,7 @@
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>126</v>
+        <v>134</v>
       </c>
     </row>
     <row r="37">
@@ -902,7 +950,7 @@
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>127</v>
+        <v>135</v>
       </c>
     </row>
     <row r="38">
@@ -910,7 +958,7 @@
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>128</v>
+        <v>136</v>
       </c>
     </row>
     <row r="39">
@@ -918,7 +966,7 @@
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>129</v>
+        <v>137</v>
       </c>
     </row>
     <row r="40">
@@ -926,7 +974,7 @@
         <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>130</v>
+        <v>138</v>
       </c>
     </row>
     <row r="41">
@@ -934,7 +982,7 @@
         <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>131</v>
+        <v>139</v>
       </c>
     </row>
     <row r="42">
@@ -942,7 +990,7 @@
         <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>132</v>
+        <v>140</v>
       </c>
     </row>
     <row r="43">
@@ -950,7 +998,7 @@
         <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>133</v>
+        <v>141</v>
       </c>
     </row>
     <row r="44">
@@ -958,7 +1006,7 @@
         <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>134</v>
+        <v>142</v>
       </c>
     </row>
     <row r="45">
@@ -966,7 +1014,7 @@
         <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>135</v>
+        <v>143</v>
       </c>
     </row>
     <row r="46">
@@ -974,7 +1022,7 @@
         <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>136</v>
+        <v>144</v>
       </c>
     </row>
     <row r="47">
@@ -982,7 +1030,7 @@
         <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>137</v>
+        <v>145</v>
       </c>
     </row>
     <row r="48">
@@ -990,7 +1038,7 @@
         <v>47</v>
       </c>
       <c r="B48" t="s">
-        <v>138</v>
+        <v>146</v>
       </c>
     </row>
     <row r="49">
@@ -998,7 +1046,7 @@
         <v>48</v>
       </c>
       <c r="B49" t="s">
-        <v>139</v>
+        <v>147</v>
       </c>
     </row>
     <row r="50">
@@ -1006,7 +1054,7 @@
         <v>49</v>
       </c>
       <c r="B50" t="s">
-        <v>140</v>
+        <v>148</v>
       </c>
     </row>
     <row r="51">
@@ -1014,7 +1062,7 @@
         <v>50</v>
       </c>
       <c r="B51" t="s">
-        <v>141</v>
+        <v>149</v>
       </c>
     </row>
     <row r="52">
@@ -1022,7 +1070,7 @@
         <v>51</v>
       </c>
       <c r="B52" t="s">
-        <v>142</v>
+        <v>150</v>
       </c>
     </row>
     <row r="53">
@@ -1030,7 +1078,7 @@
         <v>52</v>
       </c>
       <c r="B53" t="s">
-        <v>143</v>
+        <v>151</v>
       </c>
     </row>
     <row r="54">
@@ -1038,7 +1086,7 @@
         <v>53</v>
       </c>
       <c r="B54" t="s">
-        <v>144</v>
+        <v>152</v>
       </c>
     </row>
     <row r="55">
@@ -1046,7 +1094,7 @@
         <v>54</v>
       </c>
       <c r="B55" t="s">
-        <v>145</v>
+        <v>153</v>
       </c>
     </row>
     <row r="56">
@@ -1054,7 +1102,7 @@
         <v>55</v>
       </c>
       <c r="B56" t="s">
-        <v>146</v>
+        <v>154</v>
       </c>
     </row>
     <row r="57">
@@ -1062,7 +1110,7 @@
         <v>56</v>
       </c>
       <c r="B57" t="s">
-        <v>147</v>
+        <v>155</v>
       </c>
     </row>
     <row r="58">
@@ -1070,7 +1118,7 @@
         <v>57</v>
       </c>
       <c r="B58" t="s">
-        <v>148</v>
+        <v>156</v>
       </c>
     </row>
     <row r="59">
@@ -1078,7 +1126,7 @@
         <v>58</v>
       </c>
       <c r="B59" t="s">
-        <v>149</v>
+        <v>157</v>
       </c>
     </row>
     <row r="60">
@@ -1086,7 +1134,7 @@
         <v>59</v>
       </c>
       <c r="B60" t="s">
-        <v>150</v>
+        <v>158</v>
       </c>
     </row>
     <row r="61">
@@ -1094,7 +1142,7 @@
         <v>60</v>
       </c>
       <c r="B61" t="s">
-        <v>151</v>
+        <v>159</v>
       </c>
     </row>
     <row r="62">
@@ -1102,7 +1150,7 @@
         <v>61</v>
       </c>
       <c r="B62" t="s">
-        <v>152</v>
+        <v>160</v>
       </c>
     </row>
     <row r="63">
@@ -1110,7 +1158,7 @@
         <v>62</v>
       </c>
       <c r="B63" t="s">
-        <v>153</v>
+        <v>161</v>
       </c>
     </row>
     <row r="64">
@@ -1118,7 +1166,7 @@
         <v>63</v>
       </c>
       <c r="B64" t="s">
-        <v>154</v>
+        <v>162</v>
       </c>
     </row>
     <row r="65">
@@ -1126,7 +1174,7 @@
         <v>64</v>
       </c>
       <c r="B65" t="s">
-        <v>155</v>
+        <v>163</v>
       </c>
     </row>
     <row r="66">
@@ -1134,7 +1182,7 @@
         <v>65</v>
       </c>
       <c r="B66" t="s">
-        <v>156</v>
+        <v>164</v>
       </c>
     </row>
     <row r="67">
@@ -1142,7 +1190,7 @@
         <v>66</v>
       </c>
       <c r="B67" t="s">
-        <v>157</v>
+        <v>165</v>
       </c>
     </row>
     <row r="68">
@@ -1150,7 +1198,7 @@
         <v>67</v>
       </c>
       <c r="B68" t="s">
-        <v>158</v>
+        <v>166</v>
       </c>
     </row>
     <row r="69">
@@ -1158,7 +1206,7 @@
         <v>68</v>
       </c>
       <c r="B69" t="s">
-        <v>159</v>
+        <v>167</v>
       </c>
     </row>
     <row r="70">
@@ -1166,7 +1214,7 @@
         <v>69</v>
       </c>
       <c r="B70" t="s">
-        <v>160</v>
+        <v>168</v>
       </c>
     </row>
     <row r="71">
@@ -1174,7 +1222,7 @@
         <v>70</v>
       </c>
       <c r="B71" t="s">
-        <v>161</v>
+        <v>169</v>
       </c>
     </row>
     <row r="72">
@@ -1182,7 +1230,7 @@
         <v>71</v>
       </c>
       <c r="B72" t="s">
-        <v>162</v>
+        <v>170</v>
       </c>
     </row>
     <row r="73">
@@ -1190,7 +1238,7 @@
         <v>72</v>
       </c>
       <c r="B73" t="s">
-        <v>163</v>
+        <v>171</v>
       </c>
     </row>
     <row r="74">
@@ -1198,7 +1246,7 @@
         <v>73</v>
       </c>
       <c r="B74" t="s">
-        <v>164</v>
+        <v>172</v>
       </c>
     </row>
     <row r="75">
@@ -1206,7 +1254,7 @@
         <v>74</v>
       </c>
       <c r="B75" t="s">
-        <v>165</v>
+        <v>173</v>
       </c>
     </row>
     <row r="76">
@@ -1214,7 +1262,7 @@
         <v>75</v>
       </c>
       <c r="B76" t="s">
-        <v>166</v>
+        <v>174</v>
       </c>
     </row>
     <row r="77">
@@ -1222,7 +1270,7 @@
         <v>76</v>
       </c>
       <c r="B77" t="s">
-        <v>167</v>
+        <v>175</v>
       </c>
     </row>
     <row r="78">
@@ -1230,7 +1278,7 @@
         <v>77</v>
       </c>
       <c r="B78" t="s">
-        <v>168</v>
+        <v>176</v>
       </c>
     </row>
     <row r="79">
@@ -1238,7 +1286,7 @@
         <v>78</v>
       </c>
       <c r="B79" t="s">
-        <v>169</v>
+        <v>177</v>
       </c>
     </row>
     <row r="80">
@@ -1246,7 +1294,7 @@
         <v>79</v>
       </c>
       <c r="B80" t="s">
-        <v>170</v>
+        <v>178</v>
       </c>
     </row>
     <row r="81">
@@ -1254,7 +1302,7 @@
         <v>80</v>
       </c>
       <c r="B81" t="s">
-        <v>171</v>
+        <v>179</v>
       </c>
     </row>
     <row r="82">
@@ -1262,7 +1310,7 @@
         <v>81</v>
       </c>
       <c r="B82" t="s">
-        <v>172</v>
+        <v>180</v>
       </c>
     </row>
     <row r="83">
@@ -1270,7 +1318,7 @@
         <v>82</v>
       </c>
       <c r="B83" t="s">
-        <v>173</v>
+        <v>181</v>
       </c>
     </row>
     <row r="84">
@@ -1278,7 +1326,7 @@
         <v>83</v>
       </c>
       <c r="B84" t="s">
-        <v>174</v>
+        <v>182</v>
       </c>
     </row>
     <row r="85">
@@ -1286,7 +1334,7 @@
         <v>84</v>
       </c>
       <c r="B85" t="s">
-        <v>175</v>
+        <v>183</v>
       </c>
     </row>
     <row r="86">
@@ -1294,7 +1342,7 @@
         <v>85</v>
       </c>
       <c r="B86" t="s">
-        <v>176</v>
+        <v>184</v>
       </c>
     </row>
     <row r="87">
@@ -1302,7 +1350,7 @@
         <v>86</v>
       </c>
       <c r="B87" t="s">
-        <v>177</v>
+        <v>185</v>
       </c>
     </row>
     <row r="88">
@@ -1310,7 +1358,7 @@
         <v>87</v>
       </c>
       <c r="B88" t="s">
-        <v>178</v>
+        <v>186</v>
       </c>
     </row>
     <row r="89">
@@ -1318,7 +1366,7 @@
         <v>88</v>
       </c>
       <c r="B89" t="s">
-        <v>179</v>
+        <v>187</v>
       </c>
     </row>
     <row r="90">
@@ -1326,7 +1374,7 @@
         <v>89</v>
       </c>
       <c r="B90" t="s">
-        <v>180</v>
+        <v>188</v>
       </c>
     </row>
     <row r="91">
@@ -1334,7 +1382,7 @@
         <v>90</v>
       </c>
       <c r="B91" t="s">
-        <v>181</v>
+        <v>189</v>
       </c>
     </row>
     <row r="92">
@@ -1342,7 +1390,71 @@
         <v>91</v>
       </c>
       <c r="B92" t="s">
-        <v>182</v>
+        <v>190</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="s">
+        <v>92</v>
+      </c>
+      <c r="B93" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="s">
+        <v>93</v>
+      </c>
+      <c r="B94" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="s">
+        <v>94</v>
+      </c>
+      <c r="B95" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="s">
+        <v>95</v>
+      </c>
+      <c r="B96" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="s">
+        <v>96</v>
+      </c>
+      <c r="B97" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="s">
+        <v>97</v>
+      </c>
+      <c r="B98" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="s">
+        <v>98</v>
+      </c>
+      <c r="B99" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="s">
+        <v>99</v>
+      </c>
+      <c r="B100" t="s">
+        <v>198</v>
       </c>
     </row>
   </sheetData>

--- a/ligueone_match_urls.xlsx
+++ b/ligueone_match_urls.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="199">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="271" uniqueCount="271">
   <si>
     <t>x</t>
   </si>
@@ -314,6 +314,114 @@
     <t>99</t>
   </si>
   <si>
+    <t>100</t>
+  </si>
+  <si>
+    <t>101</t>
+  </si>
+  <si>
+    <t>102</t>
+  </si>
+  <si>
+    <t>103</t>
+  </si>
+  <si>
+    <t>104</t>
+  </si>
+  <si>
+    <t>105</t>
+  </si>
+  <si>
+    <t>106</t>
+  </si>
+  <si>
+    <t>107</t>
+  </si>
+  <si>
+    <t>108</t>
+  </si>
+  <si>
+    <t>109</t>
+  </si>
+  <si>
+    <t>110</t>
+  </si>
+  <si>
+    <t>111</t>
+  </si>
+  <si>
+    <t>112</t>
+  </si>
+  <si>
+    <t>113</t>
+  </si>
+  <si>
+    <t>114</t>
+  </si>
+  <si>
+    <t>115</t>
+  </si>
+  <si>
+    <t>116</t>
+  </si>
+  <si>
+    <t>117</t>
+  </si>
+  <si>
+    <t>118</t>
+  </si>
+  <si>
+    <t>119</t>
+  </si>
+  <si>
+    <t>120</t>
+  </si>
+  <si>
+    <t>121</t>
+  </si>
+  <si>
+    <t>122</t>
+  </si>
+  <si>
+    <t>123</t>
+  </si>
+  <si>
+    <t>124</t>
+  </si>
+  <si>
+    <t>125</t>
+  </si>
+  <si>
+    <t>126</t>
+  </si>
+  <si>
+    <t>127</t>
+  </si>
+  <si>
+    <t>128</t>
+  </si>
+  <si>
+    <t>129</t>
+  </si>
+  <si>
+    <t>130</t>
+  </si>
+  <si>
+    <t>131</t>
+  </si>
+  <si>
+    <t>132</t>
+  </si>
+  <si>
+    <t>133</t>
+  </si>
+  <si>
+    <t>134</t>
+  </si>
+  <si>
+    <t>135</t>
+  </si>
+  <si>
     <t>https://fbref.com/en/matches/a6b98e33/Le-Havre-Paris-Saint-Germain-August-16-2024-Ligue-1</t>
   </si>
   <si>
@@ -609,6 +717,114 @@
   </si>
   <si>
     <t>https://fbref.com/en/matches/e552596a/Lyon-Saint-Etienne-November-10-2024-Ligue-1</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/48a28747/Monaco-Brest-November-22-2024-Ligue-1</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/740dd871/Paris-Saint-Germain-Toulouse-November-22-2024-Ligue-1</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/01446885/Lens-Marseille-November-23-2024-Ligue-1</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/90c0c091/Saint-Etienne-Montpellier-November-23-2024-Ligue-1</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/4da20576/Reims-Lyon-November-23-2024-Ligue-1</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/240126d9/Lille-Rennes-November-24-2024-Ligue-1</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/a27a021f/Nantes-Le-Havre-November-24-2024-Ligue-1</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/b1dbd309/Auxerre-Angers-November-24-2024-Ligue-1</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/5bfe68c5/Nice-Strasbourg-November-24-2024-Ligue-1</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/a4c0898c/Reims-Lens-November-29-2024-Ligue-1</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/546b6937/Rennes-Saint-Etienne-November-30-2024-Ligue-1</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/197cb3bb/Brest-Strasbourg-November-30-2024-Ligue-1</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/b898e0fa/Paris-Saint-Germain-Nantes-November-30-2024-Ligue-1</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/76b0b7f1/Montpellier-Lille-December-1-2024-Ligue-1</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/44194749/Lyon-Nice-December-1-2024-Ligue-1</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/b9d2f3b2/Le-Havre-Angers-December-1-2024-Ligue-1</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/f81de4c6/Toulouse-Auxerre-December-1-2024-Ligue-1</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/e90d4817/Marseille-Monaco-December-1-2024-Ligue-1</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/5b3adec0/Lille-Brest-December-6-2024-Ligue-1</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/9139adc8/Auxerre-Paris-Saint-Germain-December-6-2024-Ligue-1</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/63873373/Monaco-Toulouse-December-7-2024-Ligue-1</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/3a9f8a55/Nice-Le-Havre-December-7-2024-Ligue-1</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/8f5cb172/Angers-Lyon-December-7-2024-Ligue-1</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/bb9a5ad3/Lens-Montpellier-December-8-2024-Ligue-1</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/74299224/Strasbourg-Reims-December-8-2024-Ligue-1</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/f45bb195/Nantes-Rennes-December-8-2024-Ligue-1</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/e865637d/Saint-Etienne-Marseille-December-8-2024-Ligue-1</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/737388fc/Toulouse-Saint-Etienne-December-13-2024-Ligue-1</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/5cab6dd9/Marseille-Lille-December-14-2024-Ligue-1</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/fb7a9227/Auxerre-Lens-December-14-2024-Ligue-1</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/f422e8b0/Reims-Monaco-December-14-2024-Ligue-1</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/479d06f8/Montpellier-Nice-December-15-2024-Ligue-1</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/59e6278a/Brest-Nantes-December-15-2024-Ligue-1</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/e1e508ce/Le-Havre-Strasbourg-December-15-2024-Ligue-1</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/fae57b16/Rennes-Angers-December-15-2024-Ligue-1</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/90a6f4dd/Paris-Saint-Germain-Lyon-December-15-2024-Ligue-1</t>
   </si>
 </sst>
 </file>
@@ -670,7 +886,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>100</v>
+        <v>136</v>
       </c>
     </row>
     <row r="3">
@@ -678,7 +894,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>101</v>
+        <v>137</v>
       </c>
     </row>
     <row r="4">
@@ -686,7 +902,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>102</v>
+        <v>138</v>
       </c>
     </row>
     <row r="5">
@@ -694,7 +910,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>103</v>
+        <v>139</v>
       </c>
     </row>
     <row r="6">
@@ -702,7 +918,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>104</v>
+        <v>140</v>
       </c>
     </row>
     <row r="7">
@@ -710,7 +926,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>105</v>
+        <v>141</v>
       </c>
     </row>
     <row r="8">
@@ -718,7 +934,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>106</v>
+        <v>142</v>
       </c>
     </row>
     <row r="9">
@@ -726,7 +942,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>107</v>
+        <v>143</v>
       </c>
     </row>
     <row r="10">
@@ -734,7 +950,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>108</v>
+        <v>144</v>
       </c>
     </row>
     <row r="11">
@@ -742,7 +958,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>109</v>
+        <v>145</v>
       </c>
     </row>
     <row r="12">
@@ -750,7 +966,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>110</v>
+        <v>146</v>
       </c>
     </row>
     <row r="13">
@@ -758,7 +974,7 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>111</v>
+        <v>147</v>
       </c>
     </row>
     <row r="14">
@@ -766,7 +982,7 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>112</v>
+        <v>148</v>
       </c>
     </row>
     <row r="15">
@@ -774,7 +990,7 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>113</v>
+        <v>149</v>
       </c>
     </row>
     <row r="16">
@@ -782,7 +998,7 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>114</v>
+        <v>150</v>
       </c>
     </row>
     <row r="17">
@@ -790,7 +1006,7 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>115</v>
+        <v>151</v>
       </c>
     </row>
     <row r="18">
@@ -798,7 +1014,7 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>116</v>
+        <v>152</v>
       </c>
     </row>
     <row r="19">
@@ -806,7 +1022,7 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>117</v>
+        <v>153</v>
       </c>
     </row>
     <row r="20">
@@ -814,7 +1030,7 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>118</v>
+        <v>154</v>
       </c>
     </row>
     <row r="21">
@@ -822,7 +1038,7 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>119</v>
+        <v>155</v>
       </c>
     </row>
     <row r="22">
@@ -830,7 +1046,7 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>120</v>
+        <v>156</v>
       </c>
     </row>
     <row r="23">
@@ -838,7 +1054,7 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>121</v>
+        <v>157</v>
       </c>
     </row>
     <row r="24">
@@ -846,7 +1062,7 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>122</v>
+        <v>158</v>
       </c>
     </row>
     <row r="25">
@@ -854,7 +1070,7 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>123</v>
+        <v>159</v>
       </c>
     </row>
     <row r="26">
@@ -862,7 +1078,7 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>124</v>
+        <v>160</v>
       </c>
     </row>
     <row r="27">
@@ -870,7 +1086,7 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>125</v>
+        <v>161</v>
       </c>
     </row>
     <row r="28">
@@ -878,7 +1094,7 @@
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>126</v>
+        <v>162</v>
       </c>
     </row>
     <row r="29">
@@ -886,7 +1102,7 @@
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>127</v>
+        <v>163</v>
       </c>
     </row>
     <row r="30">
@@ -894,7 +1110,7 @@
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>128</v>
+        <v>164</v>
       </c>
     </row>
     <row r="31">
@@ -902,7 +1118,7 @@
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>129</v>
+        <v>165</v>
       </c>
     </row>
     <row r="32">
@@ -910,7 +1126,7 @@
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>130</v>
+        <v>166</v>
       </c>
     </row>
     <row r="33">
@@ -918,7 +1134,7 @@
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>131</v>
+        <v>167</v>
       </c>
     </row>
     <row r="34">
@@ -926,7 +1142,7 @@
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>132</v>
+        <v>168</v>
       </c>
     </row>
     <row r="35">
@@ -934,7 +1150,7 @@
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>133</v>
+        <v>169</v>
       </c>
     </row>
     <row r="36">
@@ -942,7 +1158,7 @@
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>134</v>
+        <v>170</v>
       </c>
     </row>
     <row r="37">
@@ -950,7 +1166,7 @@
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>135</v>
+        <v>171</v>
       </c>
     </row>
     <row r="38">
@@ -958,7 +1174,7 @@
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>136</v>
+        <v>172</v>
       </c>
     </row>
     <row r="39">
@@ -966,7 +1182,7 @@
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>137</v>
+        <v>173</v>
       </c>
     </row>
     <row r="40">
@@ -974,7 +1190,7 @@
         <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>138</v>
+        <v>174</v>
       </c>
     </row>
     <row r="41">
@@ -982,7 +1198,7 @@
         <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>139</v>
+        <v>175</v>
       </c>
     </row>
     <row r="42">
@@ -990,7 +1206,7 @@
         <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>140</v>
+        <v>176</v>
       </c>
     </row>
     <row r="43">
@@ -998,7 +1214,7 @@
         <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>141</v>
+        <v>177</v>
       </c>
     </row>
     <row r="44">
@@ -1006,7 +1222,7 @@
         <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>142</v>
+        <v>178</v>
       </c>
     </row>
     <row r="45">
@@ -1014,7 +1230,7 @@
         <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>143</v>
+        <v>179</v>
       </c>
     </row>
     <row r="46">
@@ -1022,7 +1238,7 @@
         <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>144</v>
+        <v>180</v>
       </c>
     </row>
     <row r="47">
@@ -1030,7 +1246,7 @@
         <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>145</v>
+        <v>181</v>
       </c>
     </row>
     <row r="48">
@@ -1038,7 +1254,7 @@
         <v>47</v>
       </c>
       <c r="B48" t="s">
-        <v>146</v>
+        <v>182</v>
       </c>
     </row>
     <row r="49">
@@ -1046,7 +1262,7 @@
         <v>48</v>
       </c>
       <c r="B49" t="s">
-        <v>147</v>
+        <v>183</v>
       </c>
     </row>
     <row r="50">
@@ -1054,7 +1270,7 @@
         <v>49</v>
       </c>
       <c r="B50" t="s">
-        <v>148</v>
+        <v>184</v>
       </c>
     </row>
     <row r="51">
@@ -1062,7 +1278,7 @@
         <v>50</v>
       </c>
       <c r="B51" t="s">
-        <v>149</v>
+        <v>185</v>
       </c>
     </row>
     <row r="52">
@@ -1070,7 +1286,7 @@
         <v>51</v>
       </c>
       <c r="B52" t="s">
-        <v>150</v>
+        <v>186</v>
       </c>
     </row>
     <row r="53">
@@ -1078,7 +1294,7 @@
         <v>52</v>
       </c>
       <c r="B53" t="s">
-        <v>151</v>
+        <v>187</v>
       </c>
     </row>
     <row r="54">
@@ -1086,7 +1302,7 @@
         <v>53</v>
       </c>
       <c r="B54" t="s">
-        <v>152</v>
+        <v>188</v>
       </c>
     </row>
     <row r="55">
@@ -1094,7 +1310,7 @@
         <v>54</v>
       </c>
       <c r="B55" t="s">
-        <v>153</v>
+        <v>189</v>
       </c>
     </row>
     <row r="56">
@@ -1102,7 +1318,7 @@
         <v>55</v>
       </c>
       <c r="B56" t="s">
-        <v>154</v>
+        <v>190</v>
       </c>
     </row>
     <row r="57">
@@ -1110,7 +1326,7 @@
         <v>56</v>
       </c>
       <c r="B57" t="s">
-        <v>155</v>
+        <v>191</v>
       </c>
     </row>
     <row r="58">
@@ -1118,7 +1334,7 @@
         <v>57</v>
       </c>
       <c r="B58" t="s">
-        <v>156</v>
+        <v>192</v>
       </c>
     </row>
     <row r="59">
@@ -1126,7 +1342,7 @@
         <v>58</v>
       </c>
       <c r="B59" t="s">
-        <v>157</v>
+        <v>193</v>
       </c>
     </row>
     <row r="60">
@@ -1134,7 +1350,7 @@
         <v>59</v>
       </c>
       <c r="B60" t="s">
-        <v>158</v>
+        <v>194</v>
       </c>
     </row>
     <row r="61">
@@ -1142,7 +1358,7 @@
         <v>60</v>
       </c>
       <c r="B61" t="s">
-        <v>159</v>
+        <v>195</v>
       </c>
     </row>
     <row r="62">
@@ -1150,7 +1366,7 @@
         <v>61</v>
       </c>
       <c r="B62" t="s">
-        <v>160</v>
+        <v>196</v>
       </c>
     </row>
     <row r="63">
@@ -1158,7 +1374,7 @@
         <v>62</v>
       </c>
       <c r="B63" t="s">
-        <v>161</v>
+        <v>197</v>
       </c>
     </row>
     <row r="64">
@@ -1166,7 +1382,7 @@
         <v>63</v>
       </c>
       <c r="B64" t="s">
-        <v>162</v>
+        <v>198</v>
       </c>
     </row>
     <row r="65">
@@ -1174,7 +1390,7 @@
         <v>64</v>
       </c>
       <c r="B65" t="s">
-        <v>163</v>
+        <v>199</v>
       </c>
     </row>
     <row r="66">
@@ -1182,7 +1398,7 @@
         <v>65</v>
       </c>
       <c r="B66" t="s">
-        <v>164</v>
+        <v>200</v>
       </c>
     </row>
     <row r="67">
@@ -1190,7 +1406,7 @@
         <v>66</v>
       </c>
       <c r="B67" t="s">
-        <v>165</v>
+        <v>201</v>
       </c>
     </row>
     <row r="68">
@@ -1198,7 +1414,7 @@
         <v>67</v>
       </c>
       <c r="B68" t="s">
-        <v>166</v>
+        <v>202</v>
       </c>
     </row>
     <row r="69">
@@ -1206,7 +1422,7 @@
         <v>68</v>
       </c>
       <c r="B69" t="s">
-        <v>167</v>
+        <v>203</v>
       </c>
     </row>
     <row r="70">
@@ -1214,7 +1430,7 @@
         <v>69</v>
       </c>
       <c r="B70" t="s">
-        <v>168</v>
+        <v>204</v>
       </c>
     </row>
     <row r="71">
@@ -1222,7 +1438,7 @@
         <v>70</v>
       </c>
       <c r="B71" t="s">
-        <v>169</v>
+        <v>205</v>
       </c>
     </row>
     <row r="72">
@@ -1230,7 +1446,7 @@
         <v>71</v>
       </c>
       <c r="B72" t="s">
-        <v>170</v>
+        <v>206</v>
       </c>
     </row>
     <row r="73">
@@ -1238,7 +1454,7 @@
         <v>72</v>
       </c>
       <c r="B73" t="s">
-        <v>171</v>
+        <v>207</v>
       </c>
     </row>
     <row r="74">
@@ -1246,7 +1462,7 @@
         <v>73</v>
       </c>
       <c r="B74" t="s">
-        <v>172</v>
+        <v>208</v>
       </c>
     </row>
     <row r="75">
@@ -1254,7 +1470,7 @@
         <v>74</v>
       </c>
       <c r="B75" t="s">
-        <v>173</v>
+        <v>209</v>
       </c>
     </row>
     <row r="76">
@@ -1262,7 +1478,7 @@
         <v>75</v>
       </c>
       <c r="B76" t="s">
-        <v>174</v>
+        <v>210</v>
       </c>
     </row>
     <row r="77">
@@ -1270,7 +1486,7 @@
         <v>76</v>
       </c>
       <c r="B77" t="s">
-        <v>175</v>
+        <v>211</v>
       </c>
     </row>
     <row r="78">
@@ -1278,7 +1494,7 @@
         <v>77</v>
       </c>
       <c r="B78" t="s">
-        <v>176</v>
+        <v>212</v>
       </c>
     </row>
     <row r="79">
@@ -1286,7 +1502,7 @@
         <v>78</v>
       </c>
       <c r="B79" t="s">
-        <v>177</v>
+        <v>213</v>
       </c>
     </row>
     <row r="80">
@@ -1294,7 +1510,7 @@
         <v>79</v>
       </c>
       <c r="B80" t="s">
-        <v>178</v>
+        <v>214</v>
       </c>
     </row>
     <row r="81">
@@ -1302,7 +1518,7 @@
         <v>80</v>
       </c>
       <c r="B81" t="s">
-        <v>179</v>
+        <v>215</v>
       </c>
     </row>
     <row r="82">
@@ -1310,7 +1526,7 @@
         <v>81</v>
       </c>
       <c r="B82" t="s">
-        <v>180</v>
+        <v>216</v>
       </c>
     </row>
     <row r="83">
@@ -1318,7 +1534,7 @@
         <v>82</v>
       </c>
       <c r="B83" t="s">
-        <v>181</v>
+        <v>217</v>
       </c>
     </row>
     <row r="84">
@@ -1326,7 +1542,7 @@
         <v>83</v>
       </c>
       <c r="B84" t="s">
-        <v>182</v>
+        <v>218</v>
       </c>
     </row>
     <row r="85">
@@ -1334,7 +1550,7 @@
         <v>84</v>
       </c>
       <c r="B85" t="s">
-        <v>183</v>
+        <v>219</v>
       </c>
     </row>
     <row r="86">
@@ -1342,7 +1558,7 @@
         <v>85</v>
       </c>
       <c r="B86" t="s">
-        <v>184</v>
+        <v>220</v>
       </c>
     </row>
     <row r="87">
@@ -1350,7 +1566,7 @@
         <v>86</v>
       </c>
       <c r="B87" t="s">
-        <v>185</v>
+        <v>221</v>
       </c>
     </row>
     <row r="88">
@@ -1358,7 +1574,7 @@
         <v>87</v>
       </c>
       <c r="B88" t="s">
-        <v>186</v>
+        <v>222</v>
       </c>
     </row>
     <row r="89">
@@ -1366,7 +1582,7 @@
         <v>88</v>
       </c>
       <c r="B89" t="s">
-        <v>187</v>
+        <v>223</v>
       </c>
     </row>
     <row r="90">
@@ -1374,7 +1590,7 @@
         <v>89</v>
       </c>
       <c r="B90" t="s">
-        <v>188</v>
+        <v>224</v>
       </c>
     </row>
     <row r="91">
@@ -1382,7 +1598,7 @@
         <v>90</v>
       </c>
       <c r="B91" t="s">
-        <v>189</v>
+        <v>225</v>
       </c>
     </row>
     <row r="92">
@@ -1390,7 +1606,7 @@
         <v>91</v>
       </c>
       <c r="B92" t="s">
-        <v>190</v>
+        <v>226</v>
       </c>
     </row>
     <row r="93">
@@ -1398,7 +1614,7 @@
         <v>92</v>
       </c>
       <c r="B93" t="s">
-        <v>191</v>
+        <v>227</v>
       </c>
     </row>
     <row r="94">
@@ -1406,7 +1622,7 @@
         <v>93</v>
       </c>
       <c r="B94" t="s">
-        <v>192</v>
+        <v>228</v>
       </c>
     </row>
     <row r="95">
@@ -1414,7 +1630,7 @@
         <v>94</v>
       </c>
       <c r="B95" t="s">
-        <v>193</v>
+        <v>229</v>
       </c>
     </row>
     <row r="96">
@@ -1422,7 +1638,7 @@
         <v>95</v>
       </c>
       <c r="B96" t="s">
-        <v>194</v>
+        <v>230</v>
       </c>
     </row>
     <row r="97">
@@ -1430,7 +1646,7 @@
         <v>96</v>
       </c>
       <c r="B97" t="s">
-        <v>195</v>
+        <v>231</v>
       </c>
     </row>
     <row r="98">
@@ -1438,7 +1654,7 @@
         <v>97</v>
       </c>
       <c r="B98" t="s">
-        <v>196</v>
+        <v>232</v>
       </c>
     </row>
     <row r="99">
@@ -1446,7 +1662,7 @@
         <v>98</v>
       </c>
       <c r="B99" t="s">
-        <v>197</v>
+        <v>233</v>
       </c>
     </row>
     <row r="100">
@@ -1454,7 +1670,295 @@
         <v>99</v>
       </c>
       <c r="B100" t="s">
-        <v>198</v>
+        <v>234</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="s">
+        <v>100</v>
+      </c>
+      <c r="B101" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="s">
+        <v>101</v>
+      </c>
+      <c r="B102" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="s">
+        <v>102</v>
+      </c>
+      <c r="B103" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="s">
+        <v>103</v>
+      </c>
+      <c r="B104" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="s">
+        <v>104</v>
+      </c>
+      <c r="B105" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="s">
+        <v>105</v>
+      </c>
+      <c r="B106" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="s">
+        <v>106</v>
+      </c>
+      <c r="B107" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="s">
+        <v>107</v>
+      </c>
+      <c r="B108" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="s">
+        <v>108</v>
+      </c>
+      <c r="B109" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="s">
+        <v>109</v>
+      </c>
+      <c r="B110" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="s">
+        <v>110</v>
+      </c>
+      <c r="B111" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="s">
+        <v>111</v>
+      </c>
+      <c r="B112" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="s">
+        <v>112</v>
+      </c>
+      <c r="B113" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="s">
+        <v>113</v>
+      </c>
+      <c r="B114" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="s">
+        <v>114</v>
+      </c>
+      <c r="B115" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="s">
+        <v>115</v>
+      </c>
+      <c r="B116" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="s">
+        <v>116</v>
+      </c>
+      <c r="B117" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="s">
+        <v>117</v>
+      </c>
+      <c r="B118" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="s">
+        <v>118</v>
+      </c>
+      <c r="B119" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="s">
+        <v>119</v>
+      </c>
+      <c r="B120" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="s">
+        <v>120</v>
+      </c>
+      <c r="B121" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="s">
+        <v>121</v>
+      </c>
+      <c r="B122" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="s">
+        <v>122</v>
+      </c>
+      <c r="B123" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="s">
+        <v>123</v>
+      </c>
+      <c r="B124" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="s">
+        <v>124</v>
+      </c>
+      <c r="B125" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="s">
+        <v>125</v>
+      </c>
+      <c r="B126" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="s">
+        <v>126</v>
+      </c>
+      <c r="B127" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="s">
+        <v>127</v>
+      </c>
+      <c r="B128" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="s">
+        <v>128</v>
+      </c>
+      <c r="B129" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="s">
+        <v>129</v>
+      </c>
+      <c r="B130" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="s">
+        <v>130</v>
+      </c>
+      <c r="B131" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="s">
+        <v>131</v>
+      </c>
+      <c r="B132" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="s">
+        <v>132</v>
+      </c>
+      <c r="B133" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="s">
+        <v>133</v>
+      </c>
+      <c r="B134" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="s">
+        <v>134</v>
+      </c>
+      <c r="B135" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="s">
+        <v>135</v>
+      </c>
+      <c r="B136" t="s">
+        <v>270</v>
       </c>
     </row>
   </sheetData>

--- a/ligueone_match_urls.xlsx
+++ b/ligueone_match_urls.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="271" uniqueCount="271">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="289" uniqueCount="289">
   <si>
     <t>x</t>
   </si>
@@ -422,6 +422,33 @@
     <t>135</t>
   </si>
   <si>
+    <t>136</t>
+  </si>
+  <si>
+    <t>137</t>
+  </si>
+  <si>
+    <t>138</t>
+  </si>
+  <si>
+    <t>139</t>
+  </si>
+  <si>
+    <t>140</t>
+  </si>
+  <si>
+    <t>141</t>
+  </si>
+  <si>
+    <t>142</t>
+  </si>
+  <si>
+    <t>143</t>
+  </si>
+  <si>
+    <t>144</t>
+  </si>
+  <si>
     <t>https://fbref.com/en/matches/a6b98e33/Le-Havre-Paris-Saint-Germain-August-16-2024-Ligue-1</t>
   </si>
   <si>
@@ -825,6 +852,33 @@
   </si>
   <si>
     <t>https://fbref.com/en/matches/90a6f4dd/Paris-Saint-Germain-Lyon-December-15-2024-Ligue-1</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/b7d32870/Monaco-Paris-Saint-Germain-December-18-2024-Ligue-1</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/00eeccd9/Nice-Rennes-January-3-2025-Ligue-1</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/09e72954/Saint-Etienne-Reims-January-4-2025-Ligue-1</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/185f0c34/Lille-Nantes-January-4-2025-Ligue-1</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/6c34a34e/Lyon-Montpellier-January-4-2025-Ligue-1</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/1f09a51a/Lens-Toulouse-January-5-2025-Ligue-1</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/be2eba6e/Angers-Brest-January-5-2025-Ligue-1</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/d37a723b/Strasbourg-Auxerre-January-5-2025-Ligue-1</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/312fef53/Marseille-Le-Havre-January-5-2025-Ligue-1</t>
   </si>
 </sst>
 </file>
@@ -886,7 +940,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>136</v>
+        <v>145</v>
       </c>
     </row>
     <row r="3">
@@ -894,7 +948,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>137</v>
+        <v>146</v>
       </c>
     </row>
     <row r="4">
@@ -902,7 +956,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>138</v>
+        <v>147</v>
       </c>
     </row>
     <row r="5">
@@ -910,7 +964,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>139</v>
+        <v>148</v>
       </c>
     </row>
     <row r="6">
@@ -918,7 +972,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>140</v>
+        <v>149</v>
       </c>
     </row>
     <row r="7">
@@ -926,7 +980,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>141</v>
+        <v>150</v>
       </c>
     </row>
     <row r="8">
@@ -934,7 +988,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>142</v>
+        <v>151</v>
       </c>
     </row>
     <row r="9">
@@ -942,7 +996,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>143</v>
+        <v>152</v>
       </c>
     </row>
     <row r="10">
@@ -950,7 +1004,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>144</v>
+        <v>153</v>
       </c>
     </row>
     <row r="11">
@@ -958,7 +1012,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>145</v>
+        <v>154</v>
       </c>
     </row>
     <row r="12">
@@ -966,7 +1020,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>146</v>
+        <v>155</v>
       </c>
     </row>
     <row r="13">
@@ -974,7 +1028,7 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>147</v>
+        <v>156</v>
       </c>
     </row>
     <row r="14">
@@ -982,7 +1036,7 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>148</v>
+        <v>157</v>
       </c>
     </row>
     <row r="15">
@@ -990,7 +1044,7 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>149</v>
+        <v>158</v>
       </c>
     </row>
     <row r="16">
@@ -998,7 +1052,7 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>150</v>
+        <v>159</v>
       </c>
     </row>
     <row r="17">
@@ -1006,7 +1060,7 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>151</v>
+        <v>160</v>
       </c>
     </row>
     <row r="18">
@@ -1014,7 +1068,7 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>152</v>
+        <v>161</v>
       </c>
     </row>
     <row r="19">
@@ -1022,7 +1076,7 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>153</v>
+        <v>162</v>
       </c>
     </row>
     <row r="20">
@@ -1030,7 +1084,7 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>154</v>
+        <v>163</v>
       </c>
     </row>
     <row r="21">
@@ -1038,7 +1092,7 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>155</v>
+        <v>164</v>
       </c>
     </row>
     <row r="22">
@@ -1046,7 +1100,7 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>156</v>
+        <v>165</v>
       </c>
     </row>
     <row r="23">
@@ -1054,7 +1108,7 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>157</v>
+        <v>166</v>
       </c>
     </row>
     <row r="24">
@@ -1062,7 +1116,7 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>158</v>
+        <v>167</v>
       </c>
     </row>
     <row r="25">
@@ -1070,7 +1124,7 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>159</v>
+        <v>168</v>
       </c>
     </row>
     <row r="26">
@@ -1078,7 +1132,7 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>160</v>
+        <v>169</v>
       </c>
     </row>
     <row r="27">
@@ -1086,7 +1140,7 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>161</v>
+        <v>170</v>
       </c>
     </row>
     <row r="28">
@@ -1094,7 +1148,7 @@
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>162</v>
+        <v>171</v>
       </c>
     </row>
     <row r="29">
@@ -1102,7 +1156,7 @@
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>163</v>
+        <v>172</v>
       </c>
     </row>
     <row r="30">
@@ -1110,7 +1164,7 @@
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>164</v>
+        <v>173</v>
       </c>
     </row>
     <row r="31">
@@ -1118,7 +1172,7 @@
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>165</v>
+        <v>174</v>
       </c>
     </row>
     <row r="32">
@@ -1126,7 +1180,7 @@
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>166</v>
+        <v>175</v>
       </c>
     </row>
     <row r="33">
@@ -1134,7 +1188,7 @@
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>167</v>
+        <v>176</v>
       </c>
     </row>
     <row r="34">
@@ -1142,7 +1196,7 @@
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>168</v>
+        <v>177</v>
       </c>
     </row>
     <row r="35">
@@ -1150,7 +1204,7 @@
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>169</v>
+        <v>178</v>
       </c>
     </row>
     <row r="36">
@@ -1158,7 +1212,7 @@
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>170</v>
+        <v>179</v>
       </c>
     </row>
     <row r="37">
@@ -1166,7 +1220,7 @@
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>171</v>
+        <v>180</v>
       </c>
     </row>
     <row r="38">
@@ -1174,7 +1228,7 @@
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>172</v>
+        <v>181</v>
       </c>
     </row>
     <row r="39">
@@ -1182,7 +1236,7 @@
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>173</v>
+        <v>182</v>
       </c>
     </row>
     <row r="40">
@@ -1190,7 +1244,7 @@
         <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>174</v>
+        <v>183</v>
       </c>
     </row>
     <row r="41">
@@ -1198,7 +1252,7 @@
         <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>175</v>
+        <v>184</v>
       </c>
     </row>
     <row r="42">
@@ -1206,7 +1260,7 @@
         <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>176</v>
+        <v>185</v>
       </c>
     </row>
     <row r="43">
@@ -1214,7 +1268,7 @@
         <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>177</v>
+        <v>186</v>
       </c>
     </row>
     <row r="44">
@@ -1222,7 +1276,7 @@
         <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>178</v>
+        <v>187</v>
       </c>
     </row>
     <row r="45">
@@ -1230,7 +1284,7 @@
         <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>179</v>
+        <v>188</v>
       </c>
     </row>
     <row r="46">
@@ -1238,7 +1292,7 @@
         <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>180</v>
+        <v>189</v>
       </c>
     </row>
     <row r="47">
@@ -1246,7 +1300,7 @@
         <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>181</v>
+        <v>190</v>
       </c>
     </row>
     <row r="48">
@@ -1254,7 +1308,7 @@
         <v>47</v>
       </c>
       <c r="B48" t="s">
-        <v>182</v>
+        <v>191</v>
       </c>
     </row>
     <row r="49">
@@ -1262,7 +1316,7 @@
         <v>48</v>
       </c>
       <c r="B49" t="s">
-        <v>183</v>
+        <v>192</v>
       </c>
     </row>
     <row r="50">
@@ -1270,7 +1324,7 @@
         <v>49</v>
       </c>
       <c r="B50" t="s">
-        <v>184</v>
+        <v>193</v>
       </c>
     </row>
     <row r="51">
@@ -1278,7 +1332,7 @@
         <v>50</v>
       </c>
       <c r="B51" t="s">
-        <v>185</v>
+        <v>194</v>
       </c>
     </row>
     <row r="52">
@@ -1286,7 +1340,7 @@
         <v>51</v>
       </c>
       <c r="B52" t="s">
-        <v>186</v>
+        <v>195</v>
       </c>
     </row>
     <row r="53">
@@ -1294,7 +1348,7 @@
         <v>52</v>
       </c>
       <c r="B53" t="s">
-        <v>187</v>
+        <v>196</v>
       </c>
     </row>
     <row r="54">
@@ -1302,7 +1356,7 @@
         <v>53</v>
       </c>
       <c r="B54" t="s">
-        <v>188</v>
+        <v>197</v>
       </c>
     </row>
     <row r="55">
@@ -1310,7 +1364,7 @@
         <v>54</v>
       </c>
       <c r="B55" t="s">
-        <v>189</v>
+        <v>198</v>
       </c>
     </row>
     <row r="56">
@@ -1318,7 +1372,7 @@
         <v>55</v>
       </c>
       <c r="B56" t="s">
-        <v>190</v>
+        <v>199</v>
       </c>
     </row>
     <row r="57">
@@ -1326,7 +1380,7 @@
         <v>56</v>
       </c>
       <c r="B57" t="s">
-        <v>191</v>
+        <v>200</v>
       </c>
     </row>
     <row r="58">
@@ -1334,7 +1388,7 @@
         <v>57</v>
       </c>
       <c r="B58" t="s">
-        <v>192</v>
+        <v>201</v>
       </c>
     </row>
     <row r="59">
@@ -1342,7 +1396,7 @@
         <v>58</v>
       </c>
       <c r="B59" t="s">
-        <v>193</v>
+        <v>202</v>
       </c>
     </row>
     <row r="60">
@@ -1350,7 +1404,7 @@
         <v>59</v>
       </c>
       <c r="B60" t="s">
-        <v>194</v>
+        <v>203</v>
       </c>
     </row>
     <row r="61">
@@ -1358,7 +1412,7 @@
         <v>60</v>
       </c>
       <c r="B61" t="s">
-        <v>195</v>
+        <v>204</v>
       </c>
     </row>
     <row r="62">
@@ -1366,7 +1420,7 @@
         <v>61</v>
       </c>
       <c r="B62" t="s">
-        <v>196</v>
+        <v>205</v>
       </c>
     </row>
     <row r="63">
@@ -1374,7 +1428,7 @@
         <v>62</v>
       </c>
       <c r="B63" t="s">
-        <v>197</v>
+        <v>206</v>
       </c>
     </row>
     <row r="64">
@@ -1382,7 +1436,7 @@
         <v>63</v>
       </c>
       <c r="B64" t="s">
-        <v>198</v>
+        <v>207</v>
       </c>
     </row>
     <row r="65">
@@ -1390,7 +1444,7 @@
         <v>64</v>
       </c>
       <c r="B65" t="s">
-        <v>199</v>
+        <v>208</v>
       </c>
     </row>
     <row r="66">
@@ -1398,7 +1452,7 @@
         <v>65</v>
       </c>
       <c r="B66" t="s">
-        <v>200</v>
+        <v>209</v>
       </c>
     </row>
     <row r="67">
@@ -1406,7 +1460,7 @@
         <v>66</v>
       </c>
       <c r="B67" t="s">
-        <v>201</v>
+        <v>210</v>
       </c>
     </row>
     <row r="68">
@@ -1414,7 +1468,7 @@
         <v>67</v>
       </c>
       <c r="B68" t="s">
-        <v>202</v>
+        <v>211</v>
       </c>
     </row>
     <row r="69">
@@ -1422,7 +1476,7 @@
         <v>68</v>
       </c>
       <c r="B69" t="s">
-        <v>203</v>
+        <v>212</v>
       </c>
     </row>
     <row r="70">
@@ -1430,7 +1484,7 @@
         <v>69</v>
       </c>
       <c r="B70" t="s">
-        <v>204</v>
+        <v>213</v>
       </c>
     </row>
     <row r="71">
@@ -1438,7 +1492,7 @@
         <v>70</v>
       </c>
       <c r="B71" t="s">
-        <v>205</v>
+        <v>214</v>
       </c>
     </row>
     <row r="72">
@@ -1446,7 +1500,7 @@
         <v>71</v>
       </c>
       <c r="B72" t="s">
-        <v>206</v>
+        <v>215</v>
       </c>
     </row>
     <row r="73">
@@ -1454,7 +1508,7 @@
         <v>72</v>
       </c>
       <c r="B73" t="s">
-        <v>207</v>
+        <v>216</v>
       </c>
     </row>
     <row r="74">
@@ -1462,7 +1516,7 @@
         <v>73</v>
       </c>
       <c r="B74" t="s">
-        <v>208</v>
+        <v>217</v>
       </c>
     </row>
     <row r="75">
@@ -1470,7 +1524,7 @@
         <v>74</v>
       </c>
       <c r="B75" t="s">
-        <v>209</v>
+        <v>218</v>
       </c>
     </row>
     <row r="76">
@@ -1478,7 +1532,7 @@
         <v>75</v>
       </c>
       <c r="B76" t="s">
-        <v>210</v>
+        <v>219</v>
       </c>
     </row>
     <row r="77">
@@ -1486,7 +1540,7 @@
         <v>76</v>
       </c>
       <c r="B77" t="s">
-        <v>211</v>
+        <v>220</v>
       </c>
     </row>
     <row r="78">
@@ -1494,7 +1548,7 @@
         <v>77</v>
       </c>
       <c r="B78" t="s">
-        <v>212</v>
+        <v>221</v>
       </c>
     </row>
     <row r="79">
@@ -1502,7 +1556,7 @@
         <v>78</v>
       </c>
       <c r="B79" t="s">
-        <v>213</v>
+        <v>222</v>
       </c>
     </row>
     <row r="80">
@@ -1510,7 +1564,7 @@
         <v>79</v>
       </c>
       <c r="B80" t="s">
-        <v>214</v>
+        <v>223</v>
       </c>
     </row>
     <row r="81">
@@ -1518,7 +1572,7 @@
         <v>80</v>
       </c>
       <c r="B81" t="s">
-        <v>215</v>
+        <v>224</v>
       </c>
     </row>
     <row r="82">
@@ -1526,7 +1580,7 @@
         <v>81</v>
       </c>
       <c r="B82" t="s">
-        <v>216</v>
+        <v>225</v>
       </c>
     </row>
     <row r="83">
@@ -1534,7 +1588,7 @@
         <v>82</v>
       </c>
       <c r="B83" t="s">
-        <v>217</v>
+        <v>226</v>
       </c>
     </row>
     <row r="84">
@@ -1542,7 +1596,7 @@
         <v>83</v>
       </c>
       <c r="B84" t="s">
-        <v>218</v>
+        <v>227</v>
       </c>
     </row>
     <row r="85">
@@ -1550,7 +1604,7 @@
         <v>84</v>
       </c>
       <c r="B85" t="s">
-        <v>219</v>
+        <v>228</v>
       </c>
     </row>
     <row r="86">
@@ -1558,7 +1612,7 @@
         <v>85</v>
       </c>
       <c r="B86" t="s">
-        <v>220</v>
+        <v>229</v>
       </c>
     </row>
     <row r="87">
@@ -1566,7 +1620,7 @@
         <v>86</v>
       </c>
       <c r="B87" t="s">
-        <v>221</v>
+        <v>230</v>
       </c>
     </row>
     <row r="88">
@@ -1574,7 +1628,7 @@
         <v>87</v>
       </c>
       <c r="B88" t="s">
-        <v>222</v>
+        <v>231</v>
       </c>
     </row>
     <row r="89">
@@ -1582,7 +1636,7 @@
         <v>88</v>
       </c>
       <c r="B89" t="s">
-        <v>223</v>
+        <v>232</v>
       </c>
     </row>
     <row r="90">
@@ -1590,7 +1644,7 @@
         <v>89</v>
       </c>
       <c r="B90" t="s">
-        <v>224</v>
+        <v>233</v>
       </c>
     </row>
     <row r="91">
@@ -1598,7 +1652,7 @@
         <v>90</v>
       </c>
       <c r="B91" t="s">
-        <v>225</v>
+        <v>234</v>
       </c>
     </row>
     <row r="92">
@@ -1606,7 +1660,7 @@
         <v>91</v>
       </c>
       <c r="B92" t="s">
-        <v>226</v>
+        <v>235</v>
       </c>
     </row>
     <row r="93">
@@ -1614,7 +1668,7 @@
         <v>92</v>
       </c>
       <c r="B93" t="s">
-        <v>227</v>
+        <v>236</v>
       </c>
     </row>
     <row r="94">
@@ -1622,7 +1676,7 @@
         <v>93</v>
       </c>
       <c r="B94" t="s">
-        <v>228</v>
+        <v>237</v>
       </c>
     </row>
     <row r="95">
@@ -1630,7 +1684,7 @@
         <v>94</v>
       </c>
       <c r="B95" t="s">
-        <v>229</v>
+        <v>238</v>
       </c>
     </row>
     <row r="96">
@@ -1638,7 +1692,7 @@
         <v>95</v>
       </c>
       <c r="B96" t="s">
-        <v>230</v>
+        <v>239</v>
       </c>
     </row>
     <row r="97">
@@ -1646,7 +1700,7 @@
         <v>96</v>
       </c>
       <c r="B97" t="s">
-        <v>231</v>
+        <v>240</v>
       </c>
     </row>
     <row r="98">
@@ -1654,7 +1708,7 @@
         <v>97</v>
       </c>
       <c r="B98" t="s">
-        <v>232</v>
+        <v>241</v>
       </c>
     </row>
     <row r="99">
@@ -1662,7 +1716,7 @@
         <v>98</v>
       </c>
       <c r="B99" t="s">
-        <v>233</v>
+        <v>242</v>
       </c>
     </row>
     <row r="100">
@@ -1670,7 +1724,7 @@
         <v>99</v>
       </c>
       <c r="B100" t="s">
-        <v>234</v>
+        <v>243</v>
       </c>
     </row>
     <row r="101">
@@ -1678,7 +1732,7 @@
         <v>100</v>
       </c>
       <c r="B101" t="s">
-        <v>235</v>
+        <v>244</v>
       </c>
     </row>
     <row r="102">
@@ -1686,7 +1740,7 @@
         <v>101</v>
       </c>
       <c r="B102" t="s">
-        <v>236</v>
+        <v>245</v>
       </c>
     </row>
     <row r="103">
@@ -1694,7 +1748,7 @@
         <v>102</v>
       </c>
       <c r="B103" t="s">
-        <v>237</v>
+        <v>246</v>
       </c>
     </row>
     <row r="104">
@@ -1702,7 +1756,7 @@
         <v>103</v>
       </c>
       <c r="B104" t="s">
-        <v>238</v>
+        <v>247</v>
       </c>
     </row>
     <row r="105">
@@ -1710,7 +1764,7 @@
         <v>104</v>
       </c>
       <c r="B105" t="s">
-        <v>239</v>
+        <v>248</v>
       </c>
     </row>
     <row r="106">
@@ -1718,7 +1772,7 @@
         <v>105</v>
       </c>
       <c r="B106" t="s">
-        <v>240</v>
+        <v>249</v>
       </c>
     </row>
     <row r="107">
@@ -1726,7 +1780,7 @@
         <v>106</v>
       </c>
       <c r="B107" t="s">
-        <v>241</v>
+        <v>250</v>
       </c>
     </row>
     <row r="108">
@@ -1734,7 +1788,7 @@
         <v>107</v>
       </c>
       <c r="B108" t="s">
-        <v>242</v>
+        <v>251</v>
       </c>
     </row>
     <row r="109">
@@ -1742,7 +1796,7 @@
         <v>108</v>
       </c>
       <c r="B109" t="s">
-        <v>243</v>
+        <v>252</v>
       </c>
     </row>
     <row r="110">
@@ -1750,7 +1804,7 @@
         <v>109</v>
       </c>
       <c r="B110" t="s">
-        <v>244</v>
+        <v>253</v>
       </c>
     </row>
     <row r="111">
@@ -1758,7 +1812,7 @@
         <v>110</v>
       </c>
       <c r="B111" t="s">
-        <v>245</v>
+        <v>254</v>
       </c>
     </row>
     <row r="112">
@@ -1766,7 +1820,7 @@
         <v>111</v>
       </c>
       <c r="B112" t="s">
-        <v>246</v>
+        <v>255</v>
       </c>
     </row>
     <row r="113">
@@ -1774,7 +1828,7 @@
         <v>112</v>
       </c>
       <c r="B113" t="s">
-        <v>247</v>
+        <v>256</v>
       </c>
     </row>
     <row r="114">
@@ -1782,7 +1836,7 @@
         <v>113</v>
       </c>
       <c r="B114" t="s">
-        <v>248</v>
+        <v>257</v>
       </c>
     </row>
     <row r="115">
@@ -1790,7 +1844,7 @@
         <v>114</v>
       </c>
       <c r="B115" t="s">
-        <v>249</v>
+        <v>258</v>
       </c>
     </row>
     <row r="116">
@@ -1798,7 +1852,7 @@
         <v>115</v>
       </c>
       <c r="B116" t="s">
-        <v>250</v>
+        <v>259</v>
       </c>
     </row>
     <row r="117">
@@ -1806,7 +1860,7 @@
         <v>116</v>
       </c>
       <c r="B117" t="s">
-        <v>251</v>
+        <v>260</v>
       </c>
     </row>
     <row r="118">
@@ -1814,7 +1868,7 @@
         <v>117</v>
       </c>
       <c r="B118" t="s">
-        <v>252</v>
+        <v>261</v>
       </c>
     </row>
     <row r="119">
@@ -1822,7 +1876,7 @@
         <v>118</v>
       </c>
       <c r="B119" t="s">
-        <v>253</v>
+        <v>262</v>
       </c>
     </row>
     <row r="120">
@@ -1830,7 +1884,7 @@
         <v>119</v>
       </c>
       <c r="B120" t="s">
-        <v>254</v>
+        <v>263</v>
       </c>
     </row>
     <row r="121">
@@ -1838,7 +1892,7 @@
         <v>120</v>
       </c>
       <c r="B121" t="s">
-        <v>255</v>
+        <v>264</v>
       </c>
     </row>
     <row r="122">
@@ -1846,7 +1900,7 @@
         <v>121</v>
       </c>
       <c r="B122" t="s">
-        <v>256</v>
+        <v>265</v>
       </c>
     </row>
     <row r="123">
@@ -1854,7 +1908,7 @@
         <v>122</v>
       </c>
       <c r="B123" t="s">
-        <v>257</v>
+        <v>266</v>
       </c>
     </row>
     <row r="124">
@@ -1862,7 +1916,7 @@
         <v>123</v>
       </c>
       <c r="B124" t="s">
-        <v>258</v>
+        <v>267</v>
       </c>
     </row>
     <row r="125">
@@ -1870,7 +1924,7 @@
         <v>124</v>
       </c>
       <c r="B125" t="s">
-        <v>259</v>
+        <v>268</v>
       </c>
     </row>
     <row r="126">
@@ -1878,7 +1932,7 @@
         <v>125</v>
       </c>
       <c r="B126" t="s">
-        <v>260</v>
+        <v>269</v>
       </c>
     </row>
     <row r="127">
@@ -1886,7 +1940,7 @@
         <v>126</v>
       </c>
       <c r="B127" t="s">
-        <v>261</v>
+        <v>270</v>
       </c>
     </row>
     <row r="128">
@@ -1894,7 +1948,7 @@
         <v>127</v>
       </c>
       <c r="B128" t="s">
-        <v>262</v>
+        <v>271</v>
       </c>
     </row>
     <row r="129">
@@ -1902,7 +1956,7 @@
         <v>128</v>
       </c>
       <c r="B129" t="s">
-        <v>263</v>
+        <v>272</v>
       </c>
     </row>
     <row r="130">
@@ -1910,7 +1964,7 @@
         <v>129</v>
       </c>
       <c r="B130" t="s">
-        <v>264</v>
+        <v>273</v>
       </c>
     </row>
     <row r="131">
@@ -1918,7 +1972,7 @@
         <v>130</v>
       </c>
       <c r="B131" t="s">
-        <v>265</v>
+        <v>274</v>
       </c>
     </row>
     <row r="132">
@@ -1926,7 +1980,7 @@
         <v>131</v>
       </c>
       <c r="B132" t="s">
-        <v>266</v>
+        <v>275</v>
       </c>
     </row>
     <row r="133">
@@ -1934,7 +1988,7 @@
         <v>132</v>
       </c>
       <c r="B133" t="s">
-        <v>267</v>
+        <v>276</v>
       </c>
     </row>
     <row r="134">
@@ -1942,7 +1996,7 @@
         <v>133</v>
       </c>
       <c r="B134" t="s">
-        <v>268</v>
+        <v>277</v>
       </c>
     </row>
     <row r="135">
@@ -1950,7 +2004,7 @@
         <v>134</v>
       </c>
       <c r="B135" t="s">
-        <v>269</v>
+        <v>278</v>
       </c>
     </row>
     <row r="136">
@@ -1958,7 +2012,79 @@
         <v>135</v>
       </c>
       <c r="B136" t="s">
-        <v>270</v>
+        <v>279</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="s">
+        <v>136</v>
+      </c>
+      <c r="B137" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="s">
+        <v>137</v>
+      </c>
+      <c r="B138" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="s">
+        <v>138</v>
+      </c>
+      <c r="B139" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="s">
+        <v>139</v>
+      </c>
+      <c r="B140" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="s">
+        <v>140</v>
+      </c>
+      <c r="B141" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="s">
+        <v>141</v>
+      </c>
+      <c r="B142" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="s">
+        <v>142</v>
+      </c>
+      <c r="B143" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="s">
+        <v>143</v>
+      </c>
+      <c r="B144" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="s">
+        <v>144</v>
+      </c>
+      <c r="B145" t="s">
+        <v>288</v>
       </c>
     </row>
   </sheetData>

--- a/ligueone_match_urls.xlsx
+++ b/ligueone_match_urls.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="289" uniqueCount="289">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="433" uniqueCount="433">
   <si>
     <t>x</t>
   </si>
@@ -449,6 +449,222 @@
     <t>144</t>
   </si>
   <si>
+    <t>145</t>
+  </si>
+  <si>
+    <t>146</t>
+  </si>
+  <si>
+    <t>147</t>
+  </si>
+  <si>
+    <t>148</t>
+  </si>
+  <si>
+    <t>149</t>
+  </si>
+  <si>
+    <t>150</t>
+  </si>
+  <si>
+    <t>151</t>
+  </si>
+  <si>
+    <t>152</t>
+  </si>
+  <si>
+    <t>153</t>
+  </si>
+  <si>
+    <t>154</t>
+  </si>
+  <si>
+    <t>155</t>
+  </si>
+  <si>
+    <t>156</t>
+  </si>
+  <si>
+    <t>157</t>
+  </si>
+  <si>
+    <t>158</t>
+  </si>
+  <si>
+    <t>159</t>
+  </si>
+  <si>
+    <t>160</t>
+  </si>
+  <si>
+    <t>161</t>
+  </si>
+  <si>
+    <t>162</t>
+  </si>
+  <si>
+    <t>163</t>
+  </si>
+  <si>
+    <t>164</t>
+  </si>
+  <si>
+    <t>165</t>
+  </si>
+  <si>
+    <t>166</t>
+  </si>
+  <si>
+    <t>167</t>
+  </si>
+  <si>
+    <t>168</t>
+  </si>
+  <si>
+    <t>169</t>
+  </si>
+  <si>
+    <t>170</t>
+  </si>
+  <si>
+    <t>171</t>
+  </si>
+  <si>
+    <t>172</t>
+  </si>
+  <si>
+    <t>173</t>
+  </si>
+  <si>
+    <t>174</t>
+  </si>
+  <si>
+    <t>175</t>
+  </si>
+  <si>
+    <t>176</t>
+  </si>
+  <si>
+    <t>177</t>
+  </si>
+  <si>
+    <t>178</t>
+  </si>
+  <si>
+    <t>179</t>
+  </si>
+  <si>
+    <t>180</t>
+  </si>
+  <si>
+    <t>181</t>
+  </si>
+  <si>
+    <t>182</t>
+  </si>
+  <si>
+    <t>183</t>
+  </si>
+  <si>
+    <t>184</t>
+  </si>
+  <si>
+    <t>185</t>
+  </si>
+  <si>
+    <t>186</t>
+  </si>
+  <si>
+    <t>187</t>
+  </si>
+  <si>
+    <t>188</t>
+  </si>
+  <si>
+    <t>189</t>
+  </si>
+  <si>
+    <t>190</t>
+  </si>
+  <si>
+    <t>191</t>
+  </si>
+  <si>
+    <t>192</t>
+  </si>
+  <si>
+    <t>193</t>
+  </si>
+  <si>
+    <t>194</t>
+  </si>
+  <si>
+    <t>195</t>
+  </si>
+  <si>
+    <t>196</t>
+  </si>
+  <si>
+    <t>197</t>
+  </si>
+  <si>
+    <t>198</t>
+  </si>
+  <si>
+    <t>199</t>
+  </si>
+  <si>
+    <t>200</t>
+  </si>
+  <si>
+    <t>201</t>
+  </si>
+  <si>
+    <t>202</t>
+  </si>
+  <si>
+    <t>203</t>
+  </si>
+  <si>
+    <t>204</t>
+  </si>
+  <si>
+    <t>205</t>
+  </si>
+  <si>
+    <t>206</t>
+  </si>
+  <si>
+    <t>207</t>
+  </si>
+  <si>
+    <t>208</t>
+  </si>
+  <si>
+    <t>209</t>
+  </si>
+  <si>
+    <t>210</t>
+  </si>
+  <si>
+    <t>211</t>
+  </si>
+  <si>
+    <t>212</t>
+  </si>
+  <si>
+    <t>213</t>
+  </si>
+  <si>
+    <t>214</t>
+  </si>
+  <si>
+    <t>215</t>
+  </si>
+  <si>
+    <t>216</t>
+  </si>
+  <si>
     <t>https://fbref.com/en/matches/a6b98e33/Le-Havre-Paris-Saint-Germain-August-16-2024-Ligue-1</t>
   </si>
   <si>
@@ -879,6 +1095,222 @@
   </si>
   <si>
     <t>https://fbref.com/en/matches/312fef53/Marseille-Le-Havre-January-5-2025-Ligue-1</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/d6c61854/Nantes-Monaco-January-10-2025-Ligue-1</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/0c8ab7d6/Auxerre-Lille-January-10-2025-Ligue-1</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/561e5c4a/Brest-Lyon-January-11-2025-Ligue-1</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/cdcb7386/Reims-Nice-January-11-2025-Ligue-1</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/e23cca77/Rennes-Marseille-January-11-2025-Ligue-1</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/63d7285c/Le-Havre-Lens-January-12-2025-Ligue-1</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/1184c4fd/Montpellier-Angers-January-12-2025-Ligue-1</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/eb79cf67/Toulouse-Strasbourg-January-12-2025-Ligue-1</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/8d5ca778/Paris-Saint-Germain-Saint-Etienne-January-12-2025-Ligue-1</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/f1e8ac0f/Montpellier-Monaco-January-17-2025-Ligue-1</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/41d92573/Lille-Nice-January-17-2025-Ligue-1</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/f1e63652/Lens-Paris-Saint-Germain-January-18-2025-Ligue-1</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/39a945d8/Rennes-Brest-January-18-2025-Ligue-1</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/58a863f5/Lyon-Toulouse-January-18-2025-Ligue-1</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/c47f8bb5/Saint-Etienne-Nantes-January-19-2025-Ligue-1</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/7419fbdf/Angers-Auxerre-January-19-2025-Ligue-1</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/7e7a280a/Reims-Le-Havre-January-19-2025-Ligue-1</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/fb5f33dc/Marseille-Strasbourg-January-19-2025-Ligue-1</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/7ad35976/Auxerre-Saint-Etienne-January-24-2025-Ligue-1</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/5cbd8070/Monaco-Rennes-January-25-2025-Ligue-1</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/f5d25d48/Strasbourg-Lille-January-25-2025-Ligue-1</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/c2b062af/Paris-Saint-Germain-Reims-January-25-2025-Ligue-1</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/6f8dc12d/Le-Havre-Brest-January-26-2025-Ligue-1</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/5026986a/Lens-Angers-January-26-2025-Ligue-1</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/81e5185d/Toulouse-Montpellier-January-26-2025-Ligue-1</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/b90ceb47/Nantes-Lyon-January-26-2025-Ligue-1</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/ce373826/Nice-Marseille-January-26-2025-Ligue-1</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/3652d822/Montpellier-Lens-January-31-2025-Ligue-1</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/c84f91ac/Brest-Paris-Saint-Germain-February-1-2025-Ligue-1</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/e6c9fba7/Monaco-Auxerre-February-1-2025-Ligue-1</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/41e764ae/Lille-Saint-Etienne-February-1-2025-Ligue-1</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/af67aa9c/Toulouse-Nice-February-2-2025-Ligue-1</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/dc2dc241/Angers-Le-Havre-February-2-2025-Ligue-1</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/e9da9682/Rennes-Strasbourg-February-2-2025-Ligue-1</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/eee9fd86/Reims-Nantes-February-2-2025-Ligue-1</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/368d6066/Choc-des-Olympiques-Marseille-Lyon-February-2-2025-Ligue-1</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/606c7cad/Nantes-Brest-February-7-2025-Ligue-1</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/c79c5813/Paris-Saint-Germain-Monaco-February-7-2025-Ligue-1</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/544b155b/Nice-Lens-February-8-2025-Ligue-1</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/8c539e02/Lille-Le-Havre-February-8-2025-Ligue-1</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/de805721/Saint-Etienne-Rennes-February-8-2025-Ligue-1</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/48caa08f/Lyon-Reims-February-9-2025-Ligue-1</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/0446e883/Auxerre-Toulouse-February-9-2025-Ligue-1</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/0886a1bd/Strasbourg-Montpellier-February-9-2025-Ligue-1</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/64ab3386/Angers-Marseille-February-9-2025-Ligue-1</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/94d1ec50/Brest-Auxerre-February-14-2025-Ligue-1</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/0a71ff58/Marseille-Saint-Etienne-February-15-2025-Ligue-1</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/25fd86bc/Monaco-Nantes-February-15-2025-Ligue-1</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/91e2ebf6/Toulouse-Paris-Saint-Germain-February-15-2025-Ligue-1</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/1a0c79f0/Montpellier-Lyon-February-16-2025-Ligue-1</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/bc4d9e67/Reims-Angers-February-16-2025-Ligue-1</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/bdcbbf69/Lens-Strasbourg-February-16-2025-Ligue-1</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/e62361b8/Le-Havre-Nice-February-16-2025-Ligue-1</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/f2bcec96/Rennes-Lille-February-16-2025-Ligue-1</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/329233bd/Rennes-Reims-February-21-2025-Ligue-1</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/a62e412a/Lille-Monaco-February-22-2025-Ligue-1</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/80854674/Saint-Etienne-Angers-February-22-2025-Ligue-1</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/f26394d7/Auxerre-Marseille-February-22-2025-Ligue-1</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/24e266d4/Nantes-Lens-February-23-2025-Ligue-1</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/585be98f/Strasbourg-Brest-February-23-2025-Ligue-1</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/8284b7f6/Le-Havre-Toulouse-February-23-2025-Ligue-1</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/920fad0c/Nice-Montpellier-February-23-2025-Ligue-1</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/3906711b/Lyon-Paris-Saint-Germain-February-23-2025-Ligue-1</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/f354ea51/Monaco-Reims-February-28-2025-Ligue-1</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/8a209a58/Saint-Etienne-Nice-March-1-2025-Ligue-1</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/f0429a72/Lens-Le-Havre-March-1-2025-Ligue-1</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/3432f5cc/Paris-Saint-Germain-Lille-March-1-2025-Ligue-1</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/9e7b9e2a/Lyon-Brest-March-2-2025-Ligue-1</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/370220dd/Auxerre-Strasbourg-March-2-2025-Ligue-1</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/5739a5ae/Montpellier-Rennes-March-2-2025-Ligue-1</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/d9b255ac/Angers-Toulouse-March-2-2025-Ligue-1</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/ef2b73e7/Marseille-Nantes-March-2-2025-Ligue-1</t>
   </si>
 </sst>
 </file>
@@ -940,7 +1372,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>145</v>
+        <v>217</v>
       </c>
     </row>
     <row r="3">
@@ -948,7 +1380,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>146</v>
+        <v>218</v>
       </c>
     </row>
     <row r="4">
@@ -956,7 +1388,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>147</v>
+        <v>219</v>
       </c>
     </row>
     <row r="5">
@@ -964,7 +1396,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>148</v>
+        <v>220</v>
       </c>
     </row>
     <row r="6">
@@ -972,7 +1404,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>149</v>
+        <v>221</v>
       </c>
     </row>
     <row r="7">
@@ -980,7 +1412,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>150</v>
+        <v>222</v>
       </c>
     </row>
     <row r="8">
@@ -988,7 +1420,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>151</v>
+        <v>223</v>
       </c>
     </row>
     <row r="9">
@@ -996,7 +1428,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>152</v>
+        <v>224</v>
       </c>
     </row>
     <row r="10">
@@ -1004,7 +1436,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>153</v>
+        <v>225</v>
       </c>
     </row>
     <row r="11">
@@ -1012,7 +1444,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>154</v>
+        <v>226</v>
       </c>
     </row>
     <row r="12">
@@ -1020,7 +1452,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>155</v>
+        <v>227</v>
       </c>
     </row>
     <row r="13">
@@ -1028,7 +1460,7 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>156</v>
+        <v>228</v>
       </c>
     </row>
     <row r="14">
@@ -1036,7 +1468,7 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>157</v>
+        <v>229</v>
       </c>
     </row>
     <row r="15">
@@ -1044,7 +1476,7 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>158</v>
+        <v>230</v>
       </c>
     </row>
     <row r="16">
@@ -1052,7 +1484,7 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>159</v>
+        <v>231</v>
       </c>
     </row>
     <row r="17">
@@ -1060,7 +1492,7 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>160</v>
+        <v>232</v>
       </c>
     </row>
     <row r="18">
@@ -1068,7 +1500,7 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>161</v>
+        <v>233</v>
       </c>
     </row>
     <row r="19">
@@ -1076,7 +1508,7 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>162</v>
+        <v>234</v>
       </c>
     </row>
     <row r="20">
@@ -1084,7 +1516,7 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>163</v>
+        <v>235</v>
       </c>
     </row>
     <row r="21">
@@ -1092,7 +1524,7 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>164</v>
+        <v>236</v>
       </c>
     </row>
     <row r="22">
@@ -1100,7 +1532,7 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>165</v>
+        <v>237</v>
       </c>
     </row>
     <row r="23">
@@ -1108,7 +1540,7 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>166</v>
+        <v>238</v>
       </c>
     </row>
     <row r="24">
@@ -1116,7 +1548,7 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>167</v>
+        <v>239</v>
       </c>
     </row>
     <row r="25">
@@ -1124,7 +1556,7 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>168</v>
+        <v>240</v>
       </c>
     </row>
     <row r="26">
@@ -1132,7 +1564,7 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>169</v>
+        <v>241</v>
       </c>
     </row>
     <row r="27">
@@ -1140,7 +1572,7 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>170</v>
+        <v>242</v>
       </c>
     </row>
     <row r="28">
@@ -1148,7 +1580,7 @@
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>171</v>
+        <v>243</v>
       </c>
     </row>
     <row r="29">
@@ -1156,7 +1588,7 @@
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>172</v>
+        <v>244</v>
       </c>
     </row>
     <row r="30">
@@ -1164,7 +1596,7 @@
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>173</v>
+        <v>245</v>
       </c>
     </row>
     <row r="31">
@@ -1172,7 +1604,7 @@
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>174</v>
+        <v>246</v>
       </c>
     </row>
     <row r="32">
@@ -1180,7 +1612,7 @@
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>175</v>
+        <v>247</v>
       </c>
     </row>
     <row r="33">
@@ -1188,7 +1620,7 @@
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>176</v>
+        <v>248</v>
       </c>
     </row>
     <row r="34">
@@ -1196,7 +1628,7 @@
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>177</v>
+        <v>249</v>
       </c>
     </row>
     <row r="35">
@@ -1204,7 +1636,7 @@
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>178</v>
+        <v>250</v>
       </c>
     </row>
     <row r="36">
@@ -1212,7 +1644,7 @@
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>179</v>
+        <v>251</v>
       </c>
     </row>
     <row r="37">
@@ -1220,7 +1652,7 @@
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>180</v>
+        <v>252</v>
       </c>
     </row>
     <row r="38">
@@ -1228,7 +1660,7 @@
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>181</v>
+        <v>253</v>
       </c>
     </row>
     <row r="39">
@@ -1236,7 +1668,7 @@
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>182</v>
+        <v>254</v>
       </c>
     </row>
     <row r="40">
@@ -1244,7 +1676,7 @@
         <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>183</v>
+        <v>255</v>
       </c>
     </row>
     <row r="41">
@@ -1252,7 +1684,7 @@
         <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>184</v>
+        <v>256</v>
       </c>
     </row>
     <row r="42">
@@ -1260,7 +1692,7 @@
         <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>185</v>
+        <v>257</v>
       </c>
     </row>
     <row r="43">
@@ -1268,7 +1700,7 @@
         <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>186</v>
+        <v>258</v>
       </c>
     </row>
     <row r="44">
@@ -1276,7 +1708,7 @@
         <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>187</v>
+        <v>259</v>
       </c>
     </row>
     <row r="45">
@@ -1284,7 +1716,7 @@
         <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>188</v>
+        <v>260</v>
       </c>
     </row>
     <row r="46">
@@ -1292,7 +1724,7 @@
         <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>189</v>
+        <v>261</v>
       </c>
     </row>
     <row r="47">
@@ -1300,7 +1732,7 @@
         <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>190</v>
+        <v>262</v>
       </c>
     </row>
     <row r="48">
@@ -1308,7 +1740,7 @@
         <v>47</v>
       </c>
       <c r="B48" t="s">
-        <v>191</v>
+        <v>263</v>
       </c>
     </row>
     <row r="49">
@@ -1316,7 +1748,7 @@
         <v>48</v>
       </c>
       <c r="B49" t="s">
-        <v>192</v>
+        <v>264</v>
       </c>
     </row>
     <row r="50">
@@ -1324,7 +1756,7 @@
         <v>49</v>
       </c>
       <c r="B50" t="s">
-        <v>193</v>
+        <v>265</v>
       </c>
     </row>
     <row r="51">
@@ -1332,7 +1764,7 @@
         <v>50</v>
       </c>
       <c r="B51" t="s">
-        <v>194</v>
+        <v>266</v>
       </c>
     </row>
     <row r="52">
@@ -1340,7 +1772,7 @@
         <v>51</v>
       </c>
       <c r="B52" t="s">
-        <v>195</v>
+        <v>267</v>
       </c>
     </row>
     <row r="53">
@@ -1348,7 +1780,7 @@
         <v>52</v>
       </c>
       <c r="B53" t="s">
-        <v>196</v>
+        <v>268</v>
       </c>
     </row>
     <row r="54">
@@ -1356,7 +1788,7 @@
         <v>53</v>
       </c>
       <c r="B54" t="s">
-        <v>197</v>
+        <v>269</v>
       </c>
     </row>
     <row r="55">
@@ -1364,7 +1796,7 @@
         <v>54</v>
       </c>
       <c r="B55" t="s">
-        <v>198</v>
+        <v>270</v>
       </c>
     </row>
     <row r="56">
@@ -1372,7 +1804,7 @@
         <v>55</v>
       </c>
       <c r="B56" t="s">
-        <v>199</v>
+        <v>271</v>
       </c>
     </row>
     <row r="57">
@@ -1380,7 +1812,7 @@
         <v>56</v>
       </c>
       <c r="B57" t="s">
-        <v>200</v>
+        <v>272</v>
       </c>
     </row>
     <row r="58">
@@ -1388,7 +1820,7 @@
         <v>57</v>
       </c>
       <c r="B58" t="s">
-        <v>201</v>
+        <v>273</v>
       </c>
     </row>
     <row r="59">
@@ -1396,7 +1828,7 @@
         <v>58</v>
       </c>
       <c r="B59" t="s">
-        <v>202</v>
+        <v>274</v>
       </c>
     </row>
     <row r="60">
@@ -1404,7 +1836,7 @@
         <v>59</v>
       </c>
       <c r="B60" t="s">
-        <v>203</v>
+        <v>275</v>
       </c>
     </row>
     <row r="61">
@@ -1412,7 +1844,7 @@
         <v>60</v>
       </c>
       <c r="B61" t="s">
-        <v>204</v>
+        <v>276</v>
       </c>
     </row>
     <row r="62">
@@ -1420,7 +1852,7 @@
         <v>61</v>
       </c>
       <c r="B62" t="s">
-        <v>205</v>
+        <v>277</v>
       </c>
     </row>
     <row r="63">
@@ -1428,7 +1860,7 @@
         <v>62</v>
       </c>
       <c r="B63" t="s">
-        <v>206</v>
+        <v>278</v>
       </c>
     </row>
     <row r="64">
@@ -1436,7 +1868,7 @@
         <v>63</v>
       </c>
       <c r="B64" t="s">
-        <v>207</v>
+        <v>279</v>
       </c>
     </row>
     <row r="65">
@@ -1444,7 +1876,7 @@
         <v>64</v>
       </c>
       <c r="B65" t="s">
-        <v>208</v>
+        <v>280</v>
       </c>
     </row>
     <row r="66">
@@ -1452,7 +1884,7 @@
         <v>65</v>
       </c>
       <c r="B66" t="s">
-        <v>209</v>
+        <v>281</v>
       </c>
     </row>
     <row r="67">
@@ -1460,7 +1892,7 @@
         <v>66</v>
       </c>
       <c r="B67" t="s">
-        <v>210</v>
+        <v>282</v>
       </c>
     </row>
     <row r="68">
@@ -1468,7 +1900,7 @@
         <v>67</v>
       </c>
       <c r="B68" t="s">
-        <v>211</v>
+        <v>283</v>
       </c>
     </row>
     <row r="69">
@@ -1476,7 +1908,7 @@
         <v>68</v>
       </c>
       <c r="B69" t="s">
-        <v>212</v>
+        <v>284</v>
       </c>
     </row>
     <row r="70">
@@ -1484,7 +1916,7 @@
         <v>69</v>
       </c>
       <c r="B70" t="s">
-        <v>213</v>
+        <v>285</v>
       </c>
     </row>
     <row r="71">
@@ -1492,7 +1924,7 @@
         <v>70</v>
       </c>
       <c r="B71" t="s">
-        <v>214</v>
+        <v>286</v>
       </c>
     </row>
     <row r="72">
@@ -1500,7 +1932,7 @@
         <v>71</v>
       </c>
       <c r="B72" t="s">
-        <v>215</v>
+        <v>287</v>
       </c>
     </row>
     <row r="73">
@@ -1508,7 +1940,7 @@
         <v>72</v>
       </c>
       <c r="B73" t="s">
-        <v>216</v>
+        <v>288</v>
       </c>
     </row>
     <row r="74">
@@ -1516,7 +1948,7 @@
         <v>73</v>
       </c>
       <c r="B74" t="s">
-        <v>217</v>
+        <v>289</v>
       </c>
     </row>
     <row r="75">
@@ -1524,7 +1956,7 @@
         <v>74</v>
       </c>
       <c r="B75" t="s">
-        <v>218</v>
+        <v>290</v>
       </c>
     </row>
     <row r="76">
@@ -1532,7 +1964,7 @@
         <v>75</v>
       </c>
       <c r="B76" t="s">
-        <v>219</v>
+        <v>291</v>
       </c>
     </row>
     <row r="77">
@@ -1540,7 +1972,7 @@
         <v>76</v>
       </c>
       <c r="B77" t="s">
-        <v>220</v>
+        <v>292</v>
       </c>
     </row>
     <row r="78">
@@ -1548,7 +1980,7 @@
         <v>77</v>
       </c>
       <c r="B78" t="s">
-        <v>221</v>
+        <v>293</v>
       </c>
     </row>
     <row r="79">
@@ -1556,7 +1988,7 @@
         <v>78</v>
       </c>
       <c r="B79" t="s">
-        <v>222</v>
+        <v>294</v>
       </c>
     </row>
     <row r="80">
@@ -1564,7 +1996,7 @@
         <v>79</v>
       </c>
       <c r="B80" t="s">
-        <v>223</v>
+        <v>295</v>
       </c>
     </row>
     <row r="81">
@@ -1572,7 +2004,7 @@
         <v>80</v>
       </c>
       <c r="B81" t="s">
-        <v>224</v>
+        <v>296</v>
       </c>
     </row>
     <row r="82">
@@ -1580,7 +2012,7 @@
         <v>81</v>
       </c>
       <c r="B82" t="s">
-        <v>225</v>
+        <v>297</v>
       </c>
     </row>
     <row r="83">
@@ -1588,7 +2020,7 @@
         <v>82</v>
       </c>
       <c r="B83" t="s">
-        <v>226</v>
+        <v>298</v>
       </c>
     </row>
     <row r="84">
@@ -1596,7 +2028,7 @@
         <v>83</v>
       </c>
       <c r="B84" t="s">
-        <v>227</v>
+        <v>299</v>
       </c>
     </row>
     <row r="85">
@@ -1604,7 +2036,7 @@
         <v>84</v>
       </c>
       <c r="B85" t="s">
-        <v>228</v>
+        <v>300</v>
       </c>
     </row>
     <row r="86">
@@ -1612,7 +2044,7 @@
         <v>85</v>
       </c>
       <c r="B86" t="s">
-        <v>229</v>
+        <v>301</v>
       </c>
     </row>
     <row r="87">
@@ -1620,7 +2052,7 @@
         <v>86</v>
       </c>
       <c r="B87" t="s">
-        <v>230</v>
+        <v>302</v>
       </c>
     </row>
     <row r="88">
@@ -1628,7 +2060,7 @@
         <v>87</v>
       </c>
       <c r="B88" t="s">
-        <v>231</v>
+        <v>303</v>
       </c>
     </row>
     <row r="89">
@@ -1636,7 +2068,7 @@
         <v>88</v>
       </c>
       <c r="B89" t="s">
-        <v>232</v>
+        <v>304</v>
       </c>
     </row>
     <row r="90">
@@ -1644,7 +2076,7 @@
         <v>89</v>
       </c>
       <c r="B90" t="s">
-        <v>233</v>
+        <v>305</v>
       </c>
     </row>
     <row r="91">
@@ -1652,7 +2084,7 @@
         <v>90</v>
       </c>
       <c r="B91" t="s">
-        <v>234</v>
+        <v>306</v>
       </c>
     </row>
     <row r="92">
@@ -1660,7 +2092,7 @@
         <v>91</v>
       </c>
       <c r="B92" t="s">
-        <v>235</v>
+        <v>307</v>
       </c>
     </row>
     <row r="93">
@@ -1668,7 +2100,7 @@
         <v>92</v>
       </c>
       <c r="B93" t="s">
-        <v>236</v>
+        <v>308</v>
       </c>
     </row>
     <row r="94">
@@ -1676,7 +2108,7 @@
         <v>93</v>
       </c>
       <c r="B94" t="s">
-        <v>237</v>
+        <v>309</v>
       </c>
     </row>
     <row r="95">
@@ -1684,7 +2116,7 @@
         <v>94</v>
       </c>
       <c r="B95" t="s">
-        <v>238</v>
+        <v>310</v>
       </c>
     </row>
     <row r="96">
@@ -1692,7 +2124,7 @@
         <v>95</v>
       </c>
       <c r="B96" t="s">
-        <v>239</v>
+        <v>311</v>
       </c>
     </row>
     <row r="97">
@@ -1700,7 +2132,7 @@
         <v>96</v>
       </c>
       <c r="B97" t="s">
-        <v>240</v>
+        <v>312</v>
       </c>
     </row>
     <row r="98">
@@ -1708,7 +2140,7 @@
         <v>97</v>
       </c>
       <c r="B98" t="s">
-        <v>241</v>
+        <v>313</v>
       </c>
     </row>
     <row r="99">
@@ -1716,7 +2148,7 @@
         <v>98</v>
       </c>
       <c r="B99" t="s">
-        <v>242</v>
+        <v>314</v>
       </c>
     </row>
     <row r="100">
@@ -1724,7 +2156,7 @@
         <v>99</v>
       </c>
       <c r="B100" t="s">
-        <v>243</v>
+        <v>315</v>
       </c>
     </row>
     <row r="101">
@@ -1732,7 +2164,7 @@
         <v>100</v>
       </c>
       <c r="B101" t="s">
-        <v>244</v>
+        <v>316</v>
       </c>
     </row>
     <row r="102">
@@ -1740,7 +2172,7 @@
         <v>101</v>
       </c>
       <c r="B102" t="s">
-        <v>245</v>
+        <v>317</v>
       </c>
     </row>
     <row r="103">
@@ -1748,7 +2180,7 @@
         <v>102</v>
       </c>
       <c r="B103" t="s">
-        <v>246</v>
+        <v>318</v>
       </c>
     </row>
     <row r="104">
@@ -1756,7 +2188,7 @@
         <v>103</v>
       </c>
       <c r="B104" t="s">
-        <v>247</v>
+        <v>319</v>
       </c>
     </row>
     <row r="105">
@@ -1764,7 +2196,7 @@
         <v>104</v>
       </c>
       <c r="B105" t="s">
-        <v>248</v>
+        <v>320</v>
       </c>
     </row>
     <row r="106">
@@ -1772,7 +2204,7 @@
         <v>105</v>
       </c>
       <c r="B106" t="s">
-        <v>249</v>
+        <v>321</v>
       </c>
     </row>
     <row r="107">
@@ -1780,7 +2212,7 @@
         <v>106</v>
       </c>
       <c r="B107" t="s">
-        <v>250</v>
+        <v>322</v>
       </c>
     </row>
     <row r="108">
@@ -1788,7 +2220,7 @@
         <v>107</v>
       </c>
       <c r="B108" t="s">
-        <v>251</v>
+        <v>323</v>
       </c>
     </row>
     <row r="109">
@@ -1796,7 +2228,7 @@
         <v>108</v>
       </c>
       <c r="B109" t="s">
-        <v>252</v>
+        <v>324</v>
       </c>
     </row>
     <row r="110">
@@ -1804,7 +2236,7 @@
         <v>109</v>
       </c>
       <c r="B110" t="s">
-        <v>253</v>
+        <v>325</v>
       </c>
     </row>
     <row r="111">
@@ -1812,7 +2244,7 @@
         <v>110</v>
       </c>
       <c r="B111" t="s">
-        <v>254</v>
+        <v>326</v>
       </c>
     </row>
     <row r="112">
@@ -1820,7 +2252,7 @@
         <v>111</v>
       </c>
       <c r="B112" t="s">
-        <v>255</v>
+        <v>327</v>
       </c>
     </row>
     <row r="113">
@@ -1828,7 +2260,7 @@
         <v>112</v>
       </c>
       <c r="B113" t="s">
-        <v>256</v>
+        <v>328</v>
       </c>
     </row>
     <row r="114">
@@ -1836,7 +2268,7 @@
         <v>113</v>
       </c>
       <c r="B114" t="s">
-        <v>257</v>
+        <v>329</v>
       </c>
     </row>
     <row r="115">
@@ -1844,7 +2276,7 @@
         <v>114</v>
       </c>
       <c r="B115" t="s">
-        <v>258</v>
+        <v>330</v>
       </c>
     </row>
     <row r="116">
@@ -1852,7 +2284,7 @@
         <v>115</v>
       </c>
       <c r="B116" t="s">
-        <v>259</v>
+        <v>331</v>
       </c>
     </row>
     <row r="117">
@@ -1860,7 +2292,7 @@
         <v>116</v>
       </c>
       <c r="B117" t="s">
-        <v>260</v>
+        <v>332</v>
       </c>
     </row>
     <row r="118">
@@ -1868,7 +2300,7 @@
         <v>117</v>
       </c>
       <c r="B118" t="s">
-        <v>261</v>
+        <v>333</v>
       </c>
     </row>
     <row r="119">
@@ -1876,7 +2308,7 @@
         <v>118</v>
       </c>
       <c r="B119" t="s">
-        <v>262</v>
+        <v>334</v>
       </c>
     </row>
     <row r="120">
@@ -1884,7 +2316,7 @@
         <v>119</v>
       </c>
       <c r="B120" t="s">
-        <v>263</v>
+        <v>335</v>
       </c>
     </row>
     <row r="121">
@@ -1892,7 +2324,7 @@
         <v>120</v>
       </c>
       <c r="B121" t="s">
-        <v>264</v>
+        <v>336</v>
       </c>
     </row>
     <row r="122">
@@ -1900,7 +2332,7 @@
         <v>121</v>
       </c>
       <c r="B122" t="s">
-        <v>265</v>
+        <v>337</v>
       </c>
     </row>
     <row r="123">
@@ -1908,7 +2340,7 @@
         <v>122</v>
       </c>
       <c r="B123" t="s">
-        <v>266</v>
+        <v>338</v>
       </c>
     </row>
     <row r="124">
@@ -1916,7 +2348,7 @@
         <v>123</v>
       </c>
       <c r="B124" t="s">
-        <v>267</v>
+        <v>339</v>
       </c>
     </row>
     <row r="125">
@@ -1924,7 +2356,7 @@
         <v>124</v>
       </c>
       <c r="B125" t="s">
-        <v>268</v>
+        <v>340</v>
       </c>
     </row>
     <row r="126">
@@ -1932,7 +2364,7 @@
         <v>125</v>
       </c>
       <c r="B126" t="s">
-        <v>269</v>
+        <v>341</v>
       </c>
     </row>
     <row r="127">
@@ -1940,7 +2372,7 @@
         <v>126</v>
       </c>
       <c r="B127" t="s">
-        <v>270</v>
+        <v>342</v>
       </c>
     </row>
     <row r="128">
@@ -1948,7 +2380,7 @@
         <v>127</v>
       </c>
       <c r="B128" t="s">
-        <v>271</v>
+        <v>343</v>
       </c>
     </row>
     <row r="129">
@@ -1956,7 +2388,7 @@
         <v>128</v>
       </c>
       <c r="B129" t="s">
-        <v>272</v>
+        <v>344</v>
       </c>
     </row>
     <row r="130">
@@ -1964,7 +2396,7 @@
         <v>129</v>
       </c>
       <c r="B130" t="s">
-        <v>273</v>
+        <v>345</v>
       </c>
     </row>
     <row r="131">
@@ -1972,7 +2404,7 @@
         <v>130</v>
       </c>
       <c r="B131" t="s">
-        <v>274</v>
+        <v>346</v>
       </c>
     </row>
     <row r="132">
@@ -1980,7 +2412,7 @@
         <v>131</v>
       </c>
       <c r="B132" t="s">
-        <v>275</v>
+        <v>347</v>
       </c>
     </row>
     <row r="133">
@@ -1988,7 +2420,7 @@
         <v>132</v>
       </c>
       <c r="B133" t="s">
-        <v>276</v>
+        <v>348</v>
       </c>
     </row>
     <row r="134">
@@ -1996,7 +2428,7 @@
         <v>133</v>
       </c>
       <c r="B134" t="s">
-        <v>277</v>
+        <v>349</v>
       </c>
     </row>
     <row r="135">
@@ -2004,7 +2436,7 @@
         <v>134</v>
       </c>
       <c r="B135" t="s">
-        <v>278</v>
+        <v>350</v>
       </c>
     </row>
     <row r="136">
@@ -2012,7 +2444,7 @@
         <v>135</v>
       </c>
       <c r="B136" t="s">
-        <v>279</v>
+        <v>351</v>
       </c>
     </row>
     <row r="137">
@@ -2020,7 +2452,7 @@
         <v>136</v>
       </c>
       <c r="B137" t="s">
-        <v>280</v>
+        <v>352</v>
       </c>
     </row>
     <row r="138">
@@ -2028,7 +2460,7 @@
         <v>137</v>
       </c>
       <c r="B138" t="s">
-        <v>281</v>
+        <v>353</v>
       </c>
     </row>
     <row r="139">
@@ -2036,7 +2468,7 @@
         <v>138</v>
       </c>
       <c r="B139" t="s">
-        <v>282</v>
+        <v>354</v>
       </c>
     </row>
     <row r="140">
@@ -2044,7 +2476,7 @@
         <v>139</v>
       </c>
       <c r="B140" t="s">
-        <v>283</v>
+        <v>355</v>
       </c>
     </row>
     <row r="141">
@@ -2052,7 +2484,7 @@
         <v>140</v>
       </c>
       <c r="B141" t="s">
-        <v>284</v>
+        <v>356</v>
       </c>
     </row>
     <row r="142">
@@ -2060,7 +2492,7 @@
         <v>141</v>
       </c>
       <c r="B142" t="s">
-        <v>285</v>
+        <v>357</v>
       </c>
     </row>
     <row r="143">
@@ -2068,7 +2500,7 @@
         <v>142</v>
       </c>
       <c r="B143" t="s">
-        <v>286</v>
+        <v>358</v>
       </c>
     </row>
     <row r="144">
@@ -2076,7 +2508,7 @@
         <v>143</v>
       </c>
       <c r="B144" t="s">
-        <v>287</v>
+        <v>359</v>
       </c>
     </row>
     <row r="145">
@@ -2084,7 +2516,583 @@
         <v>144</v>
       </c>
       <c r="B145" t="s">
-        <v>288</v>
+        <v>360</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="s">
+        <v>145</v>
+      </c>
+      <c r="B146" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="s">
+        <v>146</v>
+      </c>
+      <c r="B147" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="s">
+        <v>147</v>
+      </c>
+      <c r="B148" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="s">
+        <v>148</v>
+      </c>
+      <c r="B149" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="s">
+        <v>149</v>
+      </c>
+      <c r="B150" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="s">
+        <v>150</v>
+      </c>
+      <c r="B151" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="s">
+        <v>151</v>
+      </c>
+      <c r="B152" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="s">
+        <v>152</v>
+      </c>
+      <c r="B153" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="s">
+        <v>153</v>
+      </c>
+      <c r="B154" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="s">
+        <v>154</v>
+      </c>
+      <c r="B155" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="s">
+        <v>155</v>
+      </c>
+      <c r="B156" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="s">
+        <v>156</v>
+      </c>
+      <c r="B157" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="s">
+        <v>157</v>
+      </c>
+      <c r="B158" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="s">
+        <v>158</v>
+      </c>
+      <c r="B159" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="s">
+        <v>159</v>
+      </c>
+      <c r="B160" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="s">
+        <v>160</v>
+      </c>
+      <c r="B161" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="s">
+        <v>161</v>
+      </c>
+      <c r="B162" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="s">
+        <v>162</v>
+      </c>
+      <c r="B163" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="s">
+        <v>163</v>
+      </c>
+      <c r="B164" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="s">
+        <v>164</v>
+      </c>
+      <c r="B165" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="s">
+        <v>165</v>
+      </c>
+      <c r="B166" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="s">
+        <v>166</v>
+      </c>
+      <c r="B167" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="s">
+        <v>167</v>
+      </c>
+      <c r="B168" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="s">
+        <v>168</v>
+      </c>
+      <c r="B169" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="s">
+        <v>169</v>
+      </c>
+      <c r="B170" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="s">
+        <v>170</v>
+      </c>
+      <c r="B171" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="s">
+        <v>171</v>
+      </c>
+      <c r="B172" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="s">
+        <v>172</v>
+      </c>
+      <c r="B173" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="s">
+        <v>173</v>
+      </c>
+      <c r="B174" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="s">
+        <v>174</v>
+      </c>
+      <c r="B175" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="s">
+        <v>175</v>
+      </c>
+      <c r="B176" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="s">
+        <v>176</v>
+      </c>
+      <c r="B177" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="s">
+        <v>177</v>
+      </c>
+      <c r="B178" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="s">
+        <v>178</v>
+      </c>
+      <c r="B179" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="s">
+        <v>179</v>
+      </c>
+      <c r="B180" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="s">
+        <v>180</v>
+      </c>
+      <c r="B181" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="s">
+        <v>181</v>
+      </c>
+      <c r="B182" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="s">
+        <v>182</v>
+      </c>
+      <c r="B183" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="s">
+        <v>183</v>
+      </c>
+      <c r="B184" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="s">
+        <v>184</v>
+      </c>
+      <c r="B185" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="s">
+        <v>185</v>
+      </c>
+      <c r="B186" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="s">
+        <v>186</v>
+      </c>
+      <c r="B187" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="s">
+        <v>187</v>
+      </c>
+      <c r="B188" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="s">
+        <v>188</v>
+      </c>
+      <c r="B189" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="s">
+        <v>189</v>
+      </c>
+      <c r="B190" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="s">
+        <v>190</v>
+      </c>
+      <c r="B191" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="s">
+        <v>191</v>
+      </c>
+      <c r="B192" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="s">
+        <v>192</v>
+      </c>
+      <c r="B193" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="s">
+        <v>193</v>
+      </c>
+      <c r="B194" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="s">
+        <v>194</v>
+      </c>
+      <c r="B195" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="s">
+        <v>195</v>
+      </c>
+      <c r="B196" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="s">
+        <v>196</v>
+      </c>
+      <c r="B197" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="s">
+        <v>197</v>
+      </c>
+      <c r="B198" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="s">
+        <v>198</v>
+      </c>
+      <c r="B199" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="s">
+        <v>199</v>
+      </c>
+      <c r="B200" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="s">
+        <v>200</v>
+      </c>
+      <c r="B201" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" t="s">
+        <v>201</v>
+      </c>
+      <c r="B202" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" t="s">
+        <v>202</v>
+      </c>
+      <c r="B203" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" t="s">
+        <v>203</v>
+      </c>
+      <c r="B204" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="s">
+        <v>204</v>
+      </c>
+      <c r="B205" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" t="s">
+        <v>205</v>
+      </c>
+      <c r="B206" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" t="s">
+        <v>206</v>
+      </c>
+      <c r="B207" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" t="s">
+        <v>207</v>
+      </c>
+      <c r="B208" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" t="s">
+        <v>208</v>
+      </c>
+      <c r="B209" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" t="s">
+        <v>209</v>
+      </c>
+      <c r="B210" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" t="s">
+        <v>210</v>
+      </c>
+      <c r="B211" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" t="s">
+        <v>211</v>
+      </c>
+      <c r="B212" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" t="s">
+        <v>212</v>
+      </c>
+      <c r="B213" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" t="s">
+        <v>213</v>
+      </c>
+      <c r="B214" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" t="s">
+        <v>214</v>
+      </c>
+      <c r="B215" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" t="s">
+        <v>215</v>
+      </c>
+      <c r="B216" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" t="s">
+        <v>216</v>
+      </c>
+      <c r="B217" t="s">
+        <v>432</v>
       </c>
     </row>
   </sheetData>
